--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>825207.14599179</v>
+        <v>832779.0439184546</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6465050.950138943</v>
+        <v>5312247.587582165</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4913218.392264781</v>
+        <v>3783355.816622884</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7869127.055803476</v>
+        <v>8325935.809578475</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>388.3430365919147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>27.92110091708165</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
         <v>416.8201079258493</v>
@@ -674,7 +676,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -820,19 +822,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>37.84255357379566</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -874,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -896,22 +898,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>191.9284811707548</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>60.44043386656187</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1114,10 +1116,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>271.0640515220193</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1142,10 +1144,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>213.2651380376728</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>375.7189043626431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1296,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>191.6406548364337</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1370,25 +1372,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>123.4497890477365</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
@@ -1430,10 +1432,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>252.9193615460193</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>37.11276246353506</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>227.3398802200798</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1765,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>98.9457413571089</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,16 +1821,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059089</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1853,16 +1855,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>371.26328835217</v>
       </c>
       <c r="G17" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>99.54248592713444</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2004,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>62.9608789492799</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.63178729088449</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2081,10 +2083,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>363.9585094926619</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2138,7 +2140,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>37.78331767565417</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
@@ -2302,10 +2304,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>32.496412363311</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2384,7 +2386,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>308.3558640927702</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>176.2550321649798</v>
+        <v>180.6077930059077</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>73.20963479298804</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>42.43741174507654</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
@@ -2773,13 +2775,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2794,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>356.8268763394486</v>
+        <v>97.46748333863208</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -2807,10 +2809,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
@@ -2968,7 +2970,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>13.88126300749902</v>
+        <v>180.4964215242407</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
@@ -3035,7 +3037,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>373.8316553010464</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
@@ -3089,10 +3091,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>334.0755358138493</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -3205,7 +3207,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>93.87738435325643</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>218.1247287958589</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -3284,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>128.7560630900386</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>13.88126300749902</v>
       </c>
     </row>
     <row r="38">
@@ -3557,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V38" t="n">
-        <v>123.8394724344234</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>82.85798684944108</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>28.95048357612864</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3740,16 +3742,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>363.9585094926619</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>27.108072216789</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>144.2018606410493</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3949,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3964,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672384</v>
       </c>
     </row>
     <row r="44">
@@ -3983,19 +3985,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>303.3766210912208</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>99.54248592713392</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>98.4126256305213</v>
       </c>
       <c r="I46" t="n">
         <v>115.1825854367171</v>
@@ -4186,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1229.490596184211</v>
+        <v>1695.988587952916</v>
       </c>
       <c r="C2" t="n">
-        <v>1229.490596184211</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D2" t="n">
-        <v>1229.490596184211</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E2" t="n">
-        <v>1201.287463944734</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F2" t="n">
-        <v>780.2570518984217</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G2" t="n">
-        <v>371.5287677912538</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>314.8057418867261</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>852.9652429957656</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L2" t="n">
-        <v>1001.505130159885</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M2" t="n">
-        <v>1751.680976594661</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="N2" t="n">
-        <v>2501.856823029436</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O2" t="n">
-        <v>2501.856823029436</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P2" t="n">
-        <v>3031.013520948588</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>3031.013520948588</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
-        <v>3031.013520948588</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>3031.013520948588</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>3031.013520948588</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>2773.953029208098</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.115474544579</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>2040.355173679747</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>1639.7117758487</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y2" t="n">
-        <v>1639.7117758487</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>739.4511123055061</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>605.4560410544518</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>488.5588832738442</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>368.0660672661722</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>259.1061874486768</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>152.1160747630155</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>81.36886179873159</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>253.433127981605</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>709.2393842469037</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>1370.327556166192</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="M3" t="n">
-        <v>1370.327556166192</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="N3" t="n">
-        <v>1370.327556166192</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O3" t="n">
-        <v>1545.403573780942</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P3" t="n">
-        <v>2107.109466269472</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
-        <v>2107.109466269472</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
-        <v>2107.109466269472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>1999.119456383781</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>1839.777592570789</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>1642.426781709008</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1428.715254702041</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1215.48208643837</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
-        <v>1039.156104577263</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>879.7541449410927</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1149.954120720108</v>
+        <v>367.429305553252</v>
       </c>
       <c r="C4" t="n">
-        <v>978.860748281825</v>
+        <v>196.3359331149685</v>
       </c>
       <c r="D4" t="n">
-        <v>819.3661036047349</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="E4" t="n">
-        <v>658.4552884730543</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F4" t="n">
-        <v>493.8241625836456</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G4" t="n">
-        <v>326.573771509189</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H4" t="n">
-        <v>176.9663163146456</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>74.70281982418228</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>229.2551475464203</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>489.1522478264808</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>778.4163042669741</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1059.255086661224</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1318.815696987699</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>1524.491137237311</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>1590.019167039822</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1590.019167039822</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1590.019167039822</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1590.019167039822</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>1590.019167039822</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>1590.019167039822</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="W4" t="n">
-        <v>1590.019167039822</v>
+        <v>1018.208572698848</v>
       </c>
       <c r="X4" t="n">
-        <v>1562.389525725388</v>
+        <v>779.8647105585317</v>
       </c>
       <c r="Y4" t="n">
-        <v>1337.653827114153</v>
+        <v>555.1290119472964</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1247.168231684481</v>
+        <v>235.6322383273342</v>
       </c>
       <c r="C5" t="n">
-        <v>837.0436409977507</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D5" t="n">
-        <v>432.5797110908112</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E5" t="n">
-        <v>432.5797110908112</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F5" t="n">
-        <v>371.5287677912538</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G5" t="n">
-        <v>371.5287677912538</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>314.8057418867261</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>852.9652429957656</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>1067.493474487991</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M5" t="n">
-        <v>1067.493474487991</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N5" t="n">
-        <v>1817.669320922766</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O5" t="n">
-        <v>2461.300177339871</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P5" t="n">
-        <v>2990.456875259023</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q5" t="n">
-        <v>2990.456875259023</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
-        <v>3031.013520948588</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>3031.013520948588</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>2808.807036895447</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>2808.807036895447</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V5" t="n">
-        <v>2458.969482231927</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="W5" t="n">
-        <v>2458.969482231927</v>
+        <v>1447.433488874781</v>
       </c>
       <c r="X5" t="n">
-        <v>2058.32608440088</v>
+        <v>1046.790091043734</v>
       </c>
       <c r="Y5" t="n">
-        <v>1657.38941134897</v>
+        <v>645.8534179918237</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>739.4511123055061</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>605.4560410544518</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>488.5588832738442</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>368.0660672661722</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>259.1061874486768</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>152.1160747630155</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>81.36886179873159</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L6" t="n">
-        <v>721.7084423382601</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M6" t="n">
-        <v>721.7084423382601</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N6" t="n">
-        <v>811.8869638724175</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O6" t="n">
-        <v>1515.844054418312</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P6" t="n">
-        <v>2077.549946906842</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
-        <v>2077.549946906842</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
-        <v>2107.109466269472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S6" t="n">
-        <v>1999.119456383781</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T6" t="n">
-        <v>1839.777592570789</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>1642.426781709008</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1428.715254702041</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1215.48208643837</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
-        <v>1039.156104577263</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>879.7541449410927</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>74.70281982418228</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>229.2551475464203</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>489.1522478264808</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>778.4163042669741</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>1059.255086661224</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>1318.815696987699</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>1524.491137237311</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>1590.019167039822</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1504.746448715222</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1318.354680595132</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1078.805941571834</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>796.0077941179582</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V7" t="n">
-        <v>522.1220490574801</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W7" t="n">
-        <v>248.3199768130162</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X7" t="n">
-        <v>248.3199768130162</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y7" t="n">
-        <v>248.3199768130162</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1600.457503868026</v>
+        <v>2461.166649056344</v>
       </c>
       <c r="C8" t="n">
-        <v>1190.332913181297</v>
+        <v>2051.042058369614</v>
       </c>
       <c r="D8" t="n">
-        <v>785.8689832743571</v>
+        <v>1646.578128462675</v>
       </c>
       <c r="E8" t="n">
-        <v>371.5287677912538</v>
+        <v>1232.237912979571</v>
       </c>
       <c r="F8" t="n">
-        <v>371.5287677912538</v>
+        <v>811.207500933259</v>
       </c>
       <c r="G8" t="n">
-        <v>371.5287677912538</v>
+        <v>402.4792168260911</v>
       </c>
       <c r="H8" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I8" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J8" t="n">
-        <v>314.8057418867261</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K8" t="n">
-        <v>852.9652429957656</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L8" t="n">
-        <v>852.9652429957656</v>
+        <v>1514.531158238972</v>
       </c>
       <c r="M8" t="n">
-        <v>1596.650172407143</v>
+        <v>2290.849749230726</v>
       </c>
       <c r="N8" t="n">
-        <v>2346.826018841918</v>
+        <v>3044.030765869344</v>
       </c>
       <c r="O8" t="n">
-        <v>2990.456875259023</v>
+        <v>3687.661622286449</v>
       </c>
       <c r="P8" t="n">
-        <v>2990.456875259023</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q8" t="n">
-        <v>2990.456875259023</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R8" t="n">
-        <v>3031.013520948588</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S8" t="n">
-        <v>3031.013520948588</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T8" t="n">
-        <v>3031.013520948588</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U8" t="n">
-        <v>2773.953029208098</v>
+        <v>4005.629082080232</v>
       </c>
       <c r="V8" t="n">
-        <v>2773.953029208098</v>
+        <v>3655.791527416713</v>
       </c>
       <c r="W8" t="n">
-        <v>2390.192728343266</v>
+        <v>3272.031226551881</v>
       </c>
       <c r="X8" t="n">
-        <v>2390.192728343266</v>
+        <v>2871.387828720834</v>
       </c>
       <c r="Y8" t="n">
-        <v>2010.678683532516</v>
+        <v>2871.387828720834</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>739.4511123055061</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C9" t="n">
-        <v>605.4560410544518</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D9" t="n">
-        <v>488.5588832738442</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E9" t="n">
-        <v>368.0660672661722</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F9" t="n">
-        <v>259.1061874486768</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G9" t="n">
-        <v>152.1160747630155</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H9" t="n">
-        <v>81.36886179873159</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I9" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J9" t="n">
-        <v>253.433127981605</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K9" t="n">
-        <v>709.2393842469037</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="L9" t="n">
-        <v>1370.327556166192</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="M9" t="n">
-        <v>2107.109466269472</v>
+        <v>934.5478001483758</v>
       </c>
       <c r="N9" t="n">
-        <v>2107.109466269472</v>
+        <v>1808.205892259994</v>
       </c>
       <c r="O9" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="P9" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="Q9" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R9" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S9" t="n">
-        <v>1999.119456383781</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T9" t="n">
-        <v>1839.777592570789</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U9" t="n">
-        <v>1642.426781709008</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V9" t="n">
-        <v>1428.715254702041</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W9" t="n">
-        <v>1215.48208643837</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X9" t="n">
-        <v>1039.156104577263</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y9" t="n">
-        <v>879.7541449410927</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1149.954120720108</v>
+        <v>412.271547086636</v>
       </c>
       <c r="C10" t="n">
-        <v>978.860748281825</v>
+        <v>241.1781746483525</v>
       </c>
       <c r="D10" t="n">
-        <v>819.3661036047349</v>
+        <v>241.1781746483525</v>
       </c>
       <c r="E10" t="n">
-        <v>658.4552884730543</v>
+        <v>241.1781746483525</v>
       </c>
       <c r="F10" t="n">
-        <v>493.8241625836456</v>
+        <v>241.1781746483525</v>
       </c>
       <c r="G10" t="n">
-        <v>326.573771509189</v>
+        <v>241.1781746483525</v>
       </c>
       <c r="H10" t="n">
-        <v>176.9663163146456</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I10" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J10" t="n">
-        <v>74.70281982418228</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K10" t="n">
-        <v>229.2551475464203</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L10" t="n">
-        <v>489.1522478264808</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M10" t="n">
-        <v>778.4163042669741</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N10" t="n">
-        <v>1059.255086661224</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O10" t="n">
-        <v>1318.815696987699</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P10" t="n">
-        <v>1524.491137237311</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q10" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R10" t="n">
-        <v>1590.019167039822</v>
+        <v>1535.696897750059</v>
       </c>
       <c r="S10" t="n">
-        <v>1590.019167039822</v>
+        <v>1535.696897750059</v>
       </c>
       <c r="T10" t="n">
-        <v>1590.019167039822</v>
+        <v>1535.696897750059</v>
       </c>
       <c r="U10" t="n">
-        <v>1590.019167039822</v>
+        <v>1535.696897750059</v>
       </c>
       <c r="V10" t="n">
-        <v>1590.019167039822</v>
+        <v>1342.120478723358</v>
       </c>
       <c r="W10" t="n">
-        <v>1590.019167039822</v>
+        <v>1063.050814232232</v>
       </c>
       <c r="X10" t="n">
-        <v>1562.389525725388</v>
+        <v>824.7069520919157</v>
       </c>
       <c r="Y10" t="n">
-        <v>1337.653827114153</v>
+        <v>599.9712534806804</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>606.3474390791595</v>
+        <v>2547.518411739271</v>
       </c>
       <c r="C11" t="n">
-        <v>481.6506824652842</v>
+        <v>2137.393821052541</v>
       </c>
       <c r="D11" t="n">
-        <v>481.6506824652842</v>
+        <v>1732.929891145602</v>
       </c>
       <c r="E11" t="n">
-        <v>481.6506824652842</v>
+        <v>1318.589675662498</v>
       </c>
       <c r="F11" t="n">
-        <v>60.62027041897176</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="G11" t="n">
-        <v>60.62027041897176</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H11" t="n">
-        <v>60.62027041897176</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I11" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J11" t="n">
-        <v>60.62027041897176</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K11" t="n">
-        <v>60.62027041897176</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L11" t="n">
-        <v>773.2116702312098</v>
+        <v>1596.507091842841</v>
       </c>
       <c r="M11" t="n">
-        <v>1523.387516665985</v>
+        <v>2372.825682834595</v>
       </c>
       <c r="N11" t="n">
-        <v>2140.139170544579</v>
+        <v>3126.006699473213</v>
       </c>
       <c r="O11" t="n">
-        <v>2140.139170544579</v>
+        <v>3769.637555890318</v>
       </c>
       <c r="P11" t="n">
-        <v>2669.295868463731</v>
+        <v>4298.794253809469</v>
       </c>
       <c r="Q11" t="n">
-        <v>2990.456875259023</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R11" t="n">
-        <v>3031.013520948588</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S11" t="n">
-        <v>3031.013520948588</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T11" t="n">
-        <v>2808.807036895447</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U11" t="n">
-        <v>2551.746545154957</v>
+        <v>3963.987921690927</v>
       </c>
       <c r="V11" t="n">
-        <v>2201.908990491438</v>
+        <v>3614.150367027407</v>
       </c>
       <c r="W11" t="n">
-        <v>1818.148689626606</v>
+        <v>3358.676264455671</v>
       </c>
       <c r="X11" t="n">
-        <v>1417.505291795559</v>
+        <v>3358.676264455671</v>
       </c>
       <c r="Y11" t="n">
-        <v>1016.568618743649</v>
+        <v>2957.739591403761</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>739.4511123055061</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C12" t="n">
-        <v>605.4560410544518</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D12" t="n">
-        <v>488.5588832738442</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E12" t="n">
-        <v>368.0660672661722</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F12" t="n">
-        <v>259.1061874486768</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G12" t="n">
-        <v>152.1160747630155</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H12" t="n">
-        <v>81.36886179873159</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I12" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J12" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K12" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="L12" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="M12" t="n">
-        <v>810.7961168537472</v>
+        <v>560.4447326467969</v>
       </c>
       <c r="N12" t="n">
-        <v>1403.152375723578</v>
+        <v>1434.102824758415</v>
       </c>
       <c r="O12" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="P12" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="Q12" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R12" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S12" t="n">
-        <v>1999.119456383781</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T12" t="n">
-        <v>1839.777592570789</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U12" t="n">
-        <v>1642.426781709008</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V12" t="n">
-        <v>1428.715254702041</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W12" t="n">
-        <v>1215.48208643837</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X12" t="n">
-        <v>1039.156104577263</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y12" t="n">
-        <v>879.7541449410927</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1149.954120720108</v>
+        <v>1180.904569754946</v>
       </c>
       <c r="C13" t="n">
-        <v>978.860748281825</v>
+        <v>1009.811197316662</v>
       </c>
       <c r="D13" t="n">
-        <v>819.3661036047349</v>
+        <v>850.3165526395721</v>
       </c>
       <c r="E13" t="n">
-        <v>658.4552884730543</v>
+        <v>689.4057375078917</v>
       </c>
       <c r="F13" t="n">
-        <v>493.8241625836456</v>
+        <v>524.7746116184829</v>
       </c>
       <c r="G13" t="n">
-        <v>326.573771509189</v>
+        <v>357.5242205440263</v>
       </c>
       <c r="H13" t="n">
-        <v>176.9663163146456</v>
+        <v>207.916765349483</v>
       </c>
       <c r="I13" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J13" t="n">
-        <v>74.70281982418228</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K13" t="n">
-        <v>229.2551475464203</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L13" t="n">
-        <v>489.1522478264808</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M13" t="n">
-        <v>778.4163042669741</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N13" t="n">
-        <v>1059.255086661224</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O13" t="n">
-        <v>1318.815696987699</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P13" t="n">
-        <v>1524.491137237311</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q13" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R13" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S13" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T13" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="U13" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="V13" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="W13" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="X13" t="n">
-        <v>1562.389525725388</v>
+        <v>1593.339974760225</v>
       </c>
       <c r="Y13" t="n">
-        <v>1337.653827114153</v>
+        <v>1368.60427614899</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1201.287463944734</v>
+        <v>2138.790127632103</v>
       </c>
       <c r="C14" t="n">
-        <v>1201.287463944734</v>
+        <v>1728.665536945373</v>
       </c>
       <c r="D14" t="n">
-        <v>1201.287463944734</v>
+        <v>1324.201607038434</v>
       </c>
       <c r="E14" t="n">
-        <v>1201.287463944734</v>
+        <v>909.8613915553304</v>
       </c>
       <c r="F14" t="n">
-        <v>780.2570518984217</v>
+        <v>488.830979509018</v>
       </c>
       <c r="G14" t="n">
-        <v>371.5287677912538</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H14" t="n">
-        <v>60.62027041897176</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I14" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J14" t="n">
-        <v>60.62027041897176</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K14" t="n">
-        <v>60.62027041897176</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L14" t="n">
-        <v>60.62027041897176</v>
+        <v>1596.507091842841</v>
       </c>
       <c r="M14" t="n">
-        <v>810.7961168537472</v>
+        <v>2372.825682834595</v>
       </c>
       <c r="N14" t="n">
-        <v>1537.064959817039</v>
+        <v>3126.006699473213</v>
       </c>
       <c r="O14" t="n">
-        <v>2180.695816234144</v>
+        <v>3769.637555890318</v>
       </c>
       <c r="P14" t="n">
-        <v>2709.852514153296</v>
+        <v>4298.794253809469</v>
       </c>
       <c r="Q14" t="n">
-        <v>3031.013520948588</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R14" t="n">
-        <v>3031.013520948588</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S14" t="n">
-        <v>3031.013520948588</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T14" t="n">
-        <v>2993.525882096532</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U14" t="n">
-        <v>2736.465390356042</v>
+        <v>3963.987921690927</v>
       </c>
       <c r="V14" t="n">
-        <v>2386.627835692523</v>
+        <v>3734.351679044381</v>
       </c>
       <c r="W14" t="n">
-        <v>2002.867534827692</v>
+        <v>3350.59137817955</v>
       </c>
       <c r="X14" t="n">
-        <v>1602.224136996644</v>
+        <v>2949.947980348502</v>
       </c>
       <c r="Y14" t="n">
-        <v>1201.287463944734</v>
+        <v>2549.011307296592</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>739.4511123055061</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C15" t="n">
-        <v>605.4560410544518</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D15" t="n">
-        <v>488.5588832738442</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E15" t="n">
-        <v>368.0660672661722</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F15" t="n">
-        <v>259.1061874486768</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G15" t="n">
-        <v>152.1160747630155</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H15" t="n">
-        <v>81.36886179873159</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I15" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J15" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K15" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="L15" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="M15" t="n">
-        <v>652.976529288802</v>
+        <v>934.5478001483758</v>
       </c>
       <c r="N15" t="n">
-        <v>1403.152375723578</v>
+        <v>1808.205892259994</v>
       </c>
       <c r="O15" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="P15" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="Q15" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R15" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S15" t="n">
-        <v>1999.119456383781</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T15" t="n">
-        <v>1839.777592570789</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U15" t="n">
-        <v>1642.426781709008</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V15" t="n">
-        <v>1428.715254702041</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W15" t="n">
-        <v>1215.48208643837</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X15" t="n">
-        <v>1039.156104577263</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y15" t="n">
-        <v>879.7541449410927</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>60.62027041897176</v>
+        <v>1109.756390606671</v>
       </c>
       <c r="C16" t="n">
-        <v>60.62027041897176</v>
+        <v>1009.811197316662</v>
       </c>
       <c r="D16" t="n">
-        <v>60.62027041897176</v>
+        <v>850.3165526395721</v>
       </c>
       <c r="E16" t="n">
-        <v>60.62027041897176</v>
+        <v>689.4057375078917</v>
       </c>
       <c r="F16" t="n">
-        <v>60.62027041897176</v>
+        <v>524.7746116184829</v>
       </c>
       <c r="G16" t="n">
-        <v>60.62027041897176</v>
+        <v>357.5242205440263</v>
       </c>
       <c r="H16" t="n">
-        <v>60.62027041897176</v>
+        <v>207.916765349483</v>
       </c>
       <c r="I16" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J16" t="n">
-        <v>74.70281982418228</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K16" t="n">
-        <v>229.2551475464203</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L16" t="n">
-        <v>489.1522478264808</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M16" t="n">
-        <v>778.4163042669741</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N16" t="n">
-        <v>1059.255086661224</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O16" t="n">
-        <v>1318.815696987699</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P16" t="n">
-        <v>1524.491137237311</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q16" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R16" t="n">
-        <v>1504.746448715222</v>
+        <v>1535.696897750059</v>
       </c>
       <c r="S16" t="n">
-        <v>1318.354680595132</v>
+        <v>1349.305129629969</v>
       </c>
       <c r="T16" t="n">
-        <v>1078.805941571834</v>
+        <v>1109.756390606671</v>
       </c>
       <c r="U16" t="n">
-        <v>796.0077941179582</v>
+        <v>1109.756390606671</v>
       </c>
       <c r="V16" t="n">
-        <v>522.1220490574801</v>
+        <v>1109.756390606671</v>
       </c>
       <c r="W16" t="n">
-        <v>243.0523845663545</v>
+        <v>1109.756390606671</v>
       </c>
       <c r="X16" t="n">
-        <v>60.62027041897176</v>
+        <v>1109.756390606671</v>
       </c>
       <c r="Y16" t="n">
-        <v>60.62027041897176</v>
+        <v>1109.756390606671</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2219.855668232189</v>
+        <v>2503.174400507722</v>
       </c>
       <c r="C17" t="n">
-        <v>1809.731077545459</v>
+        <v>2093.049809820992</v>
       </c>
       <c r="D17" t="n">
-        <v>1405.267147638519</v>
+        <v>1688.585879914052</v>
       </c>
       <c r="E17" t="n">
-        <v>990.9269321554161</v>
+        <v>1274.245664430949</v>
       </c>
       <c r="F17" t="n">
-        <v>569.8965201091037</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
-        <v>161.1682360019358</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
-        <v>60.62027041897176</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
-        <v>60.62027041897176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>314.8057418867261</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>852.9652429957656</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
-        <v>1565.556642808004</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M17" t="n">
-        <v>1565.556642808004</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N17" t="n">
-        <v>2180.695816234144</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>2180.695816234144</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P17" t="n">
-        <v>2709.852514153296</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q17" t="n">
-        <v>3031.013520948588</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R17" t="n">
-        <v>3031.013520948588</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>3031.013520948588</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>3031.013520948588</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>3031.013520948588</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>3031.013520948588</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3031.013520948588</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>3031.013520948588</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y17" t="n">
-        <v>2630.076847896678</v>
+        <v>2913.395580172211</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>739.4511123055061</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C18" t="n">
-        <v>605.4560410544518</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D18" t="n">
-        <v>488.5588832738442</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E18" t="n">
-        <v>368.0660672661722</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>259.1061874486768</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>152.1160747630155</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
-        <v>81.36886179873159</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>60.62027041897176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>60.62027041897176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>60.62027041897176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>60.62027041897176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>810.7961168537472</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N18" t="n">
-        <v>1403.152375723578</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O18" t="n">
-        <v>2107.109466269472</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>2107.109466269472</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>2107.109466269472</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
-        <v>2107.109466269472</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S18" t="n">
-        <v>1999.119456383781</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T18" t="n">
-        <v>1839.777592570789</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U18" t="n">
-        <v>1642.426781709008</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V18" t="n">
-        <v>1428.715254702041</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W18" t="n">
-        <v>1215.48208643837</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X18" t="n">
-        <v>1039.156104577263</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y18" t="n">
-        <v>879.7541449410927</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>326.573771509189</v>
+        <v>648.3393773611919</v>
       </c>
       <c r="C19" t="n">
-        <v>326.573771509189</v>
+        <v>477.2460049229084</v>
       </c>
       <c r="D19" t="n">
-        <v>326.573771509189</v>
+        <v>317.7513602458184</v>
       </c>
       <c r="E19" t="n">
-        <v>326.573771509189</v>
+        <v>156.8405451141379</v>
       </c>
       <c r="F19" t="n">
-        <v>326.573771509189</v>
+        <v>156.8405451141379</v>
       </c>
       <c r="G19" t="n">
-        <v>326.573771509189</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>176.9663163146456</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
-        <v>60.62027041897176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
-        <v>74.70281982418228</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K19" t="n">
-        <v>229.2551475464203</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L19" t="n">
-        <v>489.1522478264808</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M19" t="n">
-        <v>778.4163042669741</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N19" t="n">
-        <v>1059.255086661224</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O19" t="n">
-        <v>1318.815696987699</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P19" t="n">
-        <v>1524.491137237311</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q19" t="n">
-        <v>1590.019167039822</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1590.019167039822</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1590.019167039822</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1588.37089704903</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U19" t="n">
-        <v>1305.572749595154</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V19" t="n">
-        <v>1031.687004534676</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="W19" t="n">
-        <v>752.61734004355</v>
+        <v>1060.774782366472</v>
       </c>
       <c r="X19" t="n">
-        <v>514.2734779032334</v>
+        <v>1060.774782366472</v>
       </c>
       <c r="Y19" t="n">
-        <v>514.2734779032334</v>
+        <v>836.0390837552362</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="D20" t="n">
         <v>1734.602869382415</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
         <v>93.2436976906228</v>
@@ -5932,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>554.7454763291312</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W22" t="n">
-        <v>275.6758118380055</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X22" t="n">
-        <v>242.8511528851661</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y22" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6020,19 +6022,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4405.12439279065</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>4055.286838127131</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3671.526537262299</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>3270.883139431251</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6071,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>749.3736558270855</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C25" t="n">
-        <v>578.280283388802</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D25" t="n">
-        <v>418.7856387117121</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E25" t="n">
-        <v>257.8748235800315</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J25" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K25" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L25" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M25" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N25" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O25" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P25" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T25" t="n">
-        <v>1622.642594311473</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U25" t="n">
-        <v>1339.844446857597</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V25" t="n">
-        <v>1339.844446857597</v>
+        <v>3594.287766548796</v>
       </c>
       <c r="W25" t="n">
-        <v>1339.844446857597</v>
+        <v>3315.218102057671</v>
       </c>
       <c r="X25" t="n">
-        <v>1161.809060832365</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="Y25" t="n">
-        <v>937.0733622211299</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="26">
@@ -6312,13 +6314,13 @@
         <v>754.331869609911</v>
       </c>
       <c r="M27" t="n">
-        <v>1597.308950304478</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N27" t="n">
-        <v>1597.308950304478</v>
+        <v>1627.989961721529</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1627.989961721529</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.2436976906228</v>
+        <v>980.6859834725187</v>
       </c>
       <c r="C28" t="n">
-        <v>93.2436976906228</v>
+        <v>809.5926110342352</v>
       </c>
       <c r="D28" t="n">
-        <v>93.2436976906228</v>
+        <v>809.5926110342352</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>648.6817959025548</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>484.050670013146</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>316.8002789386894</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>167.1928237441461</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6406,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T28" t="n">
-        <v>1579.776521841699</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U28" t="n">
-        <v>1296.978374387823</v>
+        <v>1254.571728532997</v>
       </c>
       <c r="V28" t="n">
-        <v>1023.092629327345</v>
+        <v>980.6859834725187</v>
       </c>
       <c r="W28" t="n">
-        <v>744.0229648362191</v>
+        <v>980.6859834725187</v>
       </c>
       <c r="X28" t="n">
-        <v>505.6791026959025</v>
+        <v>980.6859834725187</v>
       </c>
       <c r="Y28" t="n">
-        <v>280.9434040846672</v>
+        <v>980.6859834725187</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C29" t="n">
-        <v>1741.806539234146</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1337.342609327206</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
-        <v>923.0023938441032</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6488,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6545,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>1210.13812587521</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>2053.115206569777</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N30" t="n">
-        <v>2053.115206569777</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O30" t="n">
-        <v>2053.115206569777</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P30" t="n">
         <v>2139.732893541123</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1182.57754799176</v>
+        <v>1066.231502096085</v>
       </c>
       <c r="C31" t="n">
-        <v>1011.484175553476</v>
+        <v>895.138129657802</v>
       </c>
       <c r="D31" t="n">
-        <v>851.989530876386</v>
+        <v>735.6434849807119</v>
       </c>
       <c r="E31" t="n">
-        <v>691.0787157447054</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F31" t="n">
-        <v>526.4475898552967</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G31" t="n">
-        <v>359.19719878084</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H31" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6646,25 +6648,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V31" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="W31" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="X31" t="n">
-        <v>1384.298732171156</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="Y31" t="n">
-        <v>1370.277254385804</v>
+        <v>1253.93120849013</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2512.458907120301</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>2102.334316433571</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1697.870386526632</v>
       </c>
       <c r="E32" t="n">
         <v>1320.262653899312</v>
@@ -6737,13 +6739,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3697.79927886809</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X32" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C33" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D33" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E33" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F33" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G33" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H33" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I33" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>3071.501944945938</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>3732.590116865226</v>
       </c>
       <c r="M33" t="n">
-        <v>562.1177108836107</v>
+        <v>3732.590116865226</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>3732.590116865226</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>3732.590116865226</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>4294.296009353757</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>4644.14047403774</v>
       </c>
       <c r="R33" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S33" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T33" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U33" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V33" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W33" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X33" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y33" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1182.57754799176</v>
+        <v>1161.057142856951</v>
       </c>
       <c r="C34" t="n">
-        <v>1011.484175553476</v>
+        <v>989.9637704186671</v>
       </c>
       <c r="D34" t="n">
-        <v>851.989530876386</v>
+        <v>830.469125741577</v>
       </c>
       <c r="E34" t="n">
-        <v>691.0787157447054</v>
+        <v>669.5583106098966</v>
       </c>
       <c r="F34" t="n">
-        <v>526.4475898552967</v>
+        <v>504.9271847204878</v>
       </c>
       <c r="G34" t="n">
-        <v>359.19719878084</v>
+        <v>337.6767936460312</v>
       </c>
       <c r="H34" t="n">
-        <v>209.5897435862967</v>
+        <v>188.0693384514879</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6892,16 +6894,16 @@
         <v>1622.642594311473</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.642594311473</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W34" t="n">
-        <v>1622.642594311473</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="X34" t="n">
-        <v>1595.012952997039</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="Y34" t="n">
-        <v>1370.277254385804</v>
+        <v>1348.756849250995</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U35" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V35" t="n">
-        <v>3954.85977060858</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W35" t="n">
-        <v>3571.099469743748</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X35" t="n">
-        <v>3170.456071912701</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y35" t="n">
-        <v>2769.519398860791</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="36">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4222.119838211426</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C37" t="n">
-        <v>4051.026465773143</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D37" t="n">
-        <v>3891.531821096053</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E37" t="n">
-        <v>3730.621005964372</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F37" t="n">
-        <v>3565.989880074963</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G37" t="n">
-        <v>3398.739489000507</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H37" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U37" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V37" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W37" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X37" t="n">
-        <v>4576.912166206539</v>
+        <v>1384.298732171156</v>
       </c>
       <c r="Y37" t="n">
-        <v>4352.176467595304</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="38">
@@ -7172,10 +7174,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7205,7 +7207,7 @@
         <v>4526.90380932524</v>
       </c>
       <c r="U38" t="n">
-        <v>4269.84331758475</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V38" t="n">
         <v>4144.752941388363</v>
@@ -7254,22 +7256,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>1422.708046067539</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1422.708046067539</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>564.3745973105462</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>564.3745973105462</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3745973105462</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>403.4637821788656</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>238.8326562894569</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7354,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T40" t="n">
-        <v>1350.978107866783</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U40" t="n">
-        <v>1068.179960412907</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V40" t="n">
-        <v>1068.179960412907</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W40" t="n">
-        <v>789.1102959217815</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="X40" t="n">
-        <v>789.1102959217815</v>
+        <v>401.6743325134148</v>
       </c>
       <c r="Y40" t="n">
-        <v>564.3745973105462</v>
+        <v>176.9386339021794</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2102.237727455811</v>
+        <v>2153.869890821028</v>
       </c>
       <c r="C41" t="n">
-        <v>2102.237727455811</v>
+        <v>1743.745300134298</v>
       </c>
       <c r="D41" t="n">
-        <v>1734.602869382415</v>
+        <v>1339.281370227359</v>
       </c>
       <c r="E41" t="n">
-        <v>1320.262653899312</v>
+        <v>924.9411547442555</v>
       </c>
       <c r="F41" t="n">
-        <v>899.2322418529996</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I41" t="n">
-        <v>93.2436976906228</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583772</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674168</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L41" t="n">
-        <v>1598.180070079655</v>
+        <v>1596.507091842841</v>
       </c>
       <c r="M41" t="n">
-        <v>2374.498661071409</v>
+        <v>2372.825682834595</v>
       </c>
       <c r="N41" t="n">
-        <v>3127.679677710027</v>
+        <v>3044.030765869344</v>
       </c>
       <c r="O41" t="n">
-        <v>3771.310534127132</v>
+        <v>3687.661622286449</v>
       </c>
       <c r="P41" t="n">
-        <v>4300.467232046283</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q41" t="n">
-        <v>4621.628238841575</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R41" t="n">
-        <v>4662.18488453114</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4356.329488637316</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4099.268996896826</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>3749.431442233307</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3365.671141368475</v>
       </c>
       <c r="X41" t="n">
-        <v>2913.395580172211</v>
+        <v>2965.027743537428</v>
       </c>
       <c r="Y41" t="n">
-        <v>2512.458907120301</v>
+        <v>2564.091070485518</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>772.0745395771571</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C42" t="n">
-        <v>638.0794683261029</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D42" t="n">
-        <v>521.1823105454953</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E42" t="n">
-        <v>400.6894945378233</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F42" t="n">
-        <v>291.7296147203278</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G42" t="n">
-        <v>184.7395020346666</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H42" t="n">
-        <v>113.9922890703826</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I42" t="n">
-        <v>93.2436976906228</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>547.3769757191078</v>
       </c>
       <c r="L42" t="n">
-        <v>754.331869609911</v>
+        <v>591.1257440638481</v>
       </c>
       <c r="M42" t="n">
-        <v>874.0699105066985</v>
+        <v>1434.102824758415</v>
       </c>
       <c r="N42" t="n">
-        <v>874.0699105066985</v>
+        <v>1434.102824758415</v>
       </c>
       <c r="O42" t="n">
-        <v>1578.027001052593</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R42" t="n">
-        <v>2139.732893541123</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S42" t="n">
-        <v>2031.742883655432</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T42" t="n">
-        <v>1872.40101984244</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U42" t="n">
-        <v>1675.050208980659</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V42" t="n">
-        <v>1461.338681973692</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W42" t="n">
-        <v>1248.105513710021</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X42" t="n">
-        <v>1071.779531848914</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y42" t="n">
-        <v>912.3775722127438</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>409.9955152208753</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C43" t="n">
-        <v>238.9021427825918</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D43" t="n">
-        <v>93.2436976906228</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E43" t="n">
-        <v>93.2436976906228</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F43" t="n">
-        <v>93.2436976906228</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G43" t="n">
-        <v>93.2436976906228</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H43" t="n">
-        <v>93.2436976906228</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I43" t="n">
-        <v>93.2436976906228</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J43" t="n">
-        <v>107.3262470958333</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K43" t="n">
-        <v>261.8785748180713</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L43" t="n">
-        <v>521.7756750981318</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M43" t="n">
-        <v>811.0397315386251</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N43" t="n">
-        <v>1091.878513932875</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O43" t="n">
-        <v>1351.43912425935</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P43" t="n">
-        <v>1557.114564508962</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q43" t="n">
-        <v>1622.642594311473</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.642594311473</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.642594311473</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.642594311473</v>
+        <v>1381.420877051361</v>
       </c>
       <c r="U43" t="n">
-        <v>1339.844446857597</v>
+        <v>1098.622729597485</v>
       </c>
       <c r="V43" t="n">
-        <v>1339.844446857597</v>
+        <v>824.7369845370074</v>
       </c>
       <c r="W43" t="n">
-        <v>1060.774782366472</v>
+        <v>545.6673200458818</v>
       </c>
       <c r="X43" t="n">
-        <v>822.430920226155</v>
+        <v>307.3234579055651</v>
       </c>
       <c r="Y43" t="n">
-        <v>597.6952216149197</v>
+        <v>91.57071945380915</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2119.307702649225</v>
+        <v>2018.588815615129</v>
       </c>
       <c r="C44" t="n">
-        <v>1709.183111962495</v>
+        <v>1608.464224928399</v>
       </c>
       <c r="D44" t="n">
-        <v>1304.719182055555</v>
+        <v>1204.000295021459</v>
       </c>
       <c r="E44" t="n">
-        <v>890.3789665724521</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="F44" t="n">
-        <v>469.3485545261396</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="G44" t="n">
-        <v>60.62027041897176</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H44" t="n">
-        <v>60.62027041897176</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I44" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J44" t="n">
-        <v>314.8057418867261</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K44" t="n">
-        <v>314.8057418867261</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L44" t="n">
-        <v>1027.397141698964</v>
+        <v>1596.507091842841</v>
       </c>
       <c r="M44" t="n">
-        <v>1108.050120177556</v>
+        <v>2290.849749230726</v>
       </c>
       <c r="N44" t="n">
-        <v>1858.225966612331</v>
+        <v>3044.030765869344</v>
       </c>
       <c r="O44" t="n">
-        <v>2501.856823029436</v>
+        <v>3687.661622286449</v>
       </c>
       <c r="P44" t="n">
-        <v>3031.013520948588</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q44" t="n">
-        <v>3031.013520948588</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R44" t="n">
-        <v>3031.013520948588</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S44" t="n">
-        <v>2930.465555365624</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T44" t="n">
-        <v>2930.465555365624</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U44" t="n">
-        <v>2930.465555365624</v>
+        <v>3963.987921690927</v>
       </c>
       <c r="V44" t="n">
-        <v>2930.465555365624</v>
+        <v>3614.150367027407</v>
       </c>
       <c r="W44" t="n">
-        <v>2930.465555365624</v>
+        <v>3230.390066162576</v>
       </c>
       <c r="X44" t="n">
-        <v>2930.465555365624</v>
+        <v>2829.746668331528</v>
       </c>
       <c r="Y44" t="n">
-        <v>2529.528882313714</v>
+        <v>2428.809995279618</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>739.4511123055061</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C45" t="n">
-        <v>605.4560410544518</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D45" t="n">
-        <v>488.5588832738442</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E45" t="n">
-        <v>368.0660672661722</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F45" t="n">
-        <v>259.1061874486768</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G45" t="n">
-        <v>152.1160747630155</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H45" t="n">
-        <v>81.36886179873159</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I45" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J45" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K45" t="n">
-        <v>516.4265266842705</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="L45" t="n">
-        <v>1177.514698603559</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="M45" t="n">
-        <v>1177.514698603559</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="N45" t="n">
-        <v>1177.514698603559</v>
+        <v>965.228811565427</v>
       </c>
       <c r="O45" t="n">
-        <v>1545.403573780942</v>
+        <v>1226.509558131796</v>
       </c>
       <c r="P45" t="n">
-        <v>2107.109466269472</v>
+        <v>1788.215450620326</v>
       </c>
       <c r="Q45" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R45" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S45" t="n">
-        <v>1999.119456383781</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T45" t="n">
-        <v>1839.777592570789</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U45" t="n">
-        <v>1642.426781709008</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V45" t="n">
-        <v>1428.715254702041</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W45" t="n">
-        <v>1215.48208643837</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X45" t="n">
-        <v>1039.156104577263</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y45" t="n">
-        <v>879.7541449410927</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1149.954120720108</v>
+        <v>307.3234579055651</v>
       </c>
       <c r="C46" t="n">
-        <v>978.860748281825</v>
+        <v>307.3234579055651</v>
       </c>
       <c r="D46" t="n">
-        <v>819.3661036047349</v>
+        <v>307.3234579055651</v>
       </c>
       <c r="E46" t="n">
-        <v>658.4552884730543</v>
+        <v>307.3234579055651</v>
       </c>
       <c r="F46" t="n">
-        <v>493.8241625836456</v>
+        <v>307.3234579055651</v>
       </c>
       <c r="G46" t="n">
-        <v>326.573771509189</v>
+        <v>307.3234579055651</v>
       </c>
       <c r="H46" t="n">
-        <v>176.9663163146456</v>
+        <v>207.916765349483</v>
       </c>
       <c r="I46" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J46" t="n">
-        <v>74.70281982418228</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K46" t="n">
-        <v>229.2551475464203</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L46" t="n">
-        <v>489.1522478264808</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M46" t="n">
-        <v>778.4163042669741</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N46" t="n">
-        <v>1059.255086661224</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O46" t="n">
-        <v>1318.815696987699</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P46" t="n">
-        <v>1524.491137237311</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q46" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R46" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S46" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T46" t="n">
-        <v>1590.019167039822</v>
+        <v>1381.420877051361</v>
       </c>
       <c r="U46" t="n">
-        <v>1590.019167039822</v>
+        <v>1098.622729597485</v>
       </c>
       <c r="V46" t="n">
-        <v>1590.019167039822</v>
+        <v>824.7369845370074</v>
       </c>
       <c r="W46" t="n">
-        <v>1590.019167039822</v>
+        <v>545.6673200458818</v>
       </c>
       <c r="X46" t="n">
-        <v>1562.389525725388</v>
+        <v>307.3234579055651</v>
       </c>
       <c r="Y46" t="n">
-        <v>1337.653827114153</v>
+        <v>307.3234579055651</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7318453389136</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L2" t="n">
-        <v>245.5256881276123</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>851.0436046941925</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>850.6656709937663</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,25 +8063,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>723.8803540323523</v>
+        <v>394.1192645454831</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>234.5959412371211</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,22 +8218,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>632.7318453389136</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>312.1805813883251</v>
+        <v>298.736180582244</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>850.6656709937663</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>743.321953824879</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
@@ -8298,25 +8300,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>723.8803540323523</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>558.5343765177347</v>
       </c>
       <c r="N6" t="n">
-        <v>144.2828090848181</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>768.8192472281761</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8456,22 +8458,22 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>732.4707174652381</v>
       </c>
       <c r="M8" t="n">
-        <v>844.4871228523759</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>850.6656709937663</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8529,22 +8531,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>801.788435357892</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>851.0436046941925</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>715.8937593208557</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>372.6011972082306</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8775,10 +8777,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>815.3176639755644</v>
+        <v>531.1743980747686</v>
       </c>
       <c r="N12" t="n">
-        <v>651.5330488178209</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
         <v>768.8192472281761</v>
@@ -8924,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>851.0436046941925</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>826.5171826387326</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
@@ -8945,7 +8947,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>372.6011972082306</v>
       </c>
       <c r="R14" t="n">
         <v>87.31214281472352</v>
@@ -9012,13 +9014,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>655.9039391624884</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>810.9467736308969</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9170,13 +9172,13 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M17" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N17" t="n">
-        <v>714.2649911870643</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O17" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P17" t="n">
         <v>628.1510783507341</v>
@@ -9185,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,13 +9251,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>815.3176639755644</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>651.5330488178209</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9422,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9717,25 +9719,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>144.1852316072087</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9960,16 +9962,16 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>571.1716873458281</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10191,22 +10193,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>141.7522481051737</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10428,28 +10430,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>77.22687637146549</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,7 +10591,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L35" t="n">
-        <v>815.2746908024794</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M35" t="n">
         <v>877.4504173780091</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10902,25 +10904,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>425.1489105478544</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11069,7 +11071,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>853.701196452193</v>
+        <v>770.897223114952</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
@@ -11139,13 +11141,13 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>100.3051989065463</v>
       </c>
       <c r="M42" t="n">
-        <v>178.5117997957786</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
@@ -11154,7 +11156,7 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
@@ -11297,16 +11299,16 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>174.7578794859261</v>
+        <v>794.6464440407678</v>
       </c>
       <c r="N44" t="n">
-        <v>850.6656709937663</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
@@ -11315,10 +11317,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,25 +11378,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
-        <v>429.3564034215989</v>
+        <v>321.6714250266349</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -22544,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>17.77593127592985</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>382.2757124111906</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,7 +22564,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -22601,16 +22603,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -22708,19 +22710,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>120.0571446565234</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22762,13 +22764,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22784,22 +22786,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>214.0948636091077</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>356.3796740592874</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -22835,16 +22837,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22939,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -23002,10 +23004,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>5.214916324195087</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300493</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -23030,10 +23032,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>41.22474878541223</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.20840195874769</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -23182,22 +23184,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -23236,13 +23238,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>79.50623277343956</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23258,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>282.5735557321261</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>127.0033363101638</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>182.8716567490747</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>118.9992988968043</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,25 +23655,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>70.43669735679175</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300456</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23741,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>45.55681957367926</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>208.2569264714247</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>102.6170082144321</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,22 +23943,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>235.5214643421804</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23969,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>36.46078111520814</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24026,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>308.5558614412299</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>203.4640111556024</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="23">
@@ -24224,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,7 +24262,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24272,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>88.57144222862058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>165.577887163712</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>59.70539135393363</v>
+        <v>55.35263051300575</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>41.97295064372906</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>194.7158398879884</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24680,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>49.19646844041398</v>
+        <v>308.5558614412305</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24695,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
@@ -24901,10 +24903,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>208.6070786176239</v>
+        <v>41.9919201008822</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24923,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>36.36515802722585</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24977,10 +24979,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>62.56142803888764</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>21.30520108346067</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,16 +25134,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>187.9942390719857</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>57.06664624006532</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
@@ -25375,10 +25377,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
     </row>
     <row r="38">
@@ -25445,10 +25447,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V38" t="n">
-        <v>222.4997066824607</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>102.9647224806629</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -25555,19 +25557,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>136.6274035875834</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25628,16 +25630,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>36.46078111520814</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>389.7120357090603</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>13.6978375892698</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25837,13 +25839,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>8.893130557884518</v>
       </c>
     </row>
     <row r="44">
@@ -25871,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>106.8201922370515</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.38577852670622</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>49.6987550120766</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26074,22 +26076,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>600656.1066337144</v>
+        <v>504186.3875931785</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>600656.1066337144</v>
+        <v>504186.3875931785</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>600656.1066337145</v>
+        <v>759009.4272679704</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>600656.1066337144</v>
+        <v>759009.4272679702</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>600656.1066337144</v>
+        <v>759009.4272679699</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>600656.1066337145</v>
+        <v>767568.9689679982</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>767568.9689679981</v>
+        <v>767568.9689679982</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>767568.9689679981</v>
+        <v>767568.9689679979</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>767568.9689679981</v>
+        <v>767568.9689679982</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>767568.9689679982</v>
+        <v>759009.4272679702</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>600656.1066337145</v>
+        <v>759009.4272679702</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>192663.279486286</v>
+        <v>161720.1620581895</v>
       </c>
       <c r="C2" t="n">
-        <v>192663.2794862859</v>
+        <v>161720.1620581895</v>
       </c>
       <c r="D2" t="n">
-        <v>192663.2794862859</v>
+        <v>243455.8540293491</v>
       </c>
       <c r="E2" t="n">
-        <v>192663.279486286</v>
+        <v>243455.854029349</v>
       </c>
       <c r="F2" t="n">
-        <v>192663.279486286</v>
+        <v>243455.8540293491</v>
       </c>
       <c r="G2" t="n">
-        <v>192663.279486286</v>
+        <v>246201.3674048298</v>
       </c>
       <c r="H2" t="n">
-        <v>246201.3674048298</v>
+        <v>246201.3674048297</v>
       </c>
       <c r="I2" t="n">
         <v>246201.3674048298</v>
@@ -26338,22 +26340,22 @@
         <v>246201.3674048298</v>
       </c>
       <c r="K2" t="n">
+        <v>246201.3674048297</v>
+      </c>
+      <c r="L2" t="n">
+        <v>246201.3674048299</v>
+      </c>
+      <c r="M2" t="n">
         <v>246201.3674048298</v>
       </c>
-      <c r="L2" t="n">
-        <v>246201.3674048297</v>
-      </c>
-      <c r="M2" t="n">
-        <v>246201.3674048297</v>
-      </c>
       <c r="N2" t="n">
-        <v>246201.3674048297</v>
+        <v>246201.3674048298</v>
       </c>
       <c r="O2" t="n">
-        <v>246201.3674048298</v>
+        <v>243455.8540293491</v>
       </c>
       <c r="P2" t="n">
-        <v>192663.2794862859</v>
+        <v>243455.8540293491</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>253940.5860452134</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>193389.0504351682</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,22 +26380,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5731.72800046337</v>
       </c>
       <c r="H3" t="n">
-        <v>110026.1786092112</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>198261.625418768</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>157566.97087753</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>545.3333608562409</v>
+        <v>433.9049324434263</v>
       </c>
       <c r="C4" t="n">
-        <v>545.3333608562409</v>
+        <v>433.9049324434263</v>
       </c>
       <c r="D4" t="n">
-        <v>545.3333608562409</v>
+        <v>728.24113572818</v>
       </c>
       <c r="E4" t="n">
-        <v>545.3333608562409</v>
+        <v>728.2411357281799</v>
       </c>
       <c r="F4" t="n">
-        <v>545.3333608562409</v>
+        <v>728.2411357281799</v>
       </c>
       <c r="G4" t="n">
-        <v>545.3333608562409</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="H4" t="n">
         <v>738.1279301446466</v>
       </c>
       <c r="I4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="J4" t="n">
         <v>738.1279301446466</v>
       </c>
       <c r="K4" t="n">
+        <v>738.1279301446466</v>
+      </c>
+      <c r="L4" t="n">
         <v>738.1279301446465</v>
-      </c>
-      <c r="L4" t="n">
-        <v>738.1279301446466</v>
       </c>
       <c r="M4" t="n">
         <v>738.1279301446466</v>
       </c>
       <c r="N4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446464</v>
       </c>
       <c r="O4" t="n">
-        <v>738.1279301446466</v>
+        <v>728.24113572818</v>
       </c>
       <c r="P4" t="n">
-        <v>545.3333608562409</v>
+        <v>728.2411357281799</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>79699.00551841853</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>79699.00551841853</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>79699.00551841853</v>
+        <v>103221.3467848949</v>
       </c>
       <c r="E5" t="n">
-        <v>46071.40551841853</v>
+        <v>69593.74678489495</v>
       </c>
       <c r="F5" t="n">
-        <v>46071.40551841853</v>
+        <v>69593.74678489495</v>
       </c>
       <c r="G5" t="n">
-        <v>46071.40551841853</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="H5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>70865.21024487332</v>
+        <v>69593.74678489495</v>
       </c>
       <c r="P5" t="n">
-        <v>46071.40551841853</v>
+        <v>69593.74678489495</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-141521.6454382022</v>
+        <v>-79038.31784586559</v>
       </c>
       <c r="C6" t="n">
-        <v>112418.9406070111</v>
+        <v>95917.19204724848</v>
       </c>
       <c r="D6" t="n">
-        <v>112418.9406070111</v>
+        <v>-53882.78432644223</v>
       </c>
       <c r="E6" t="n">
-        <v>146046.5406070112</v>
+        <v>173133.8661087259</v>
       </c>
       <c r="F6" t="n">
-        <v>146046.5406070112</v>
+        <v>173133.866108726</v>
       </c>
       <c r="G6" t="n">
-        <v>146046.5406070112</v>
+        <v>168866.3012293485</v>
       </c>
       <c r="H6" t="n">
-        <v>64571.8506206007</v>
+        <v>174598.0292298118</v>
       </c>
       <c r="I6" t="n">
         <v>174598.0292298118</v>
       </c>
       <c r="J6" t="n">
-        <v>-23663.59618895617</v>
+        <v>38003.22842391685</v>
       </c>
       <c r="K6" t="n">
+        <v>174598.0292298117</v>
+      </c>
+      <c r="L6" t="n">
+        <v>17031.05835228195</v>
+      </c>
+      <c r="M6" t="n">
+        <v>174598.0292298118</v>
+      </c>
+      <c r="N6" t="n">
         <v>174598.0292298119</v>
       </c>
-      <c r="L6" t="n">
-        <v>174598.0292298117</v>
-      </c>
-      <c r="M6" t="n">
-        <v>174598.0292298117</v>
-      </c>
-      <c r="N6" t="n">
-        <v>174598.0292298118</v>
-      </c>
       <c r="O6" t="n">
-        <v>174598.0292298118</v>
+        <v>173133.866108726</v>
       </c>
       <c r="P6" t="n">
-        <v>146046.5406070111</v>
+        <v>173133.866108726</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>757.753380237147</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="E4" t="n">
-        <v>757.753380237147</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="F4" t="n">
-        <v>757.753380237147</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="G4" t="n">
-        <v>757.753380237147</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="H4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>1165.546221132785</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="P4" t="n">
-        <v>757.753380237147</v>
+        <v>1144.633993172614</v>
       </c>
     </row>
   </sheetData>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>622.5704228025888</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,22 +27026,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>20.91222796017064</v>
       </c>
       <c r="H4" t="n">
-        <v>407.7928408956379</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>757.7533802371468</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>622.5704228025886</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>622.5704228025888</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>20.91222796017064</v>
       </c>
       <c r="P4" t="n">
-        <v>407.7928408956379</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,28 +34701,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>543.5954556656965</v>
+        <v>400.909295520443</v>
       </c>
       <c r="L2" t="n">
-        <v>150.0402900647675</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>757.753380237147</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34781,25 +34783,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>667.7658302215033</v>
+        <v>338.004740734634</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>176.8444622371211</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,22 +34938,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>543.5954556656965</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>216.6951833254803</v>
+        <v>203.2507825193992</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>650.1321781990958</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,25 +35020,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>667.7658302215033</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>500.9700927793173</v>
       </c>
       <c r="N6" t="n">
-        <v>91.08941569106811</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>711.0677682281761</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35176,22 +35178,22 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>636.9853194023932</v>
       </c>
       <c r="M8" t="n">
-        <v>751.1968983953304</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>757.753380237147</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35249,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>744.2241516194746</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>757.753380237147</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>622.9814685642364</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>282.5673928090785</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,10 +35497,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>757.753380237147</v>
+        <v>473.6101143363512</v>
       </c>
       <c r="N12" t="n">
-        <v>598.339655424071</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
         <v>711.0677682281761</v>
@@ -35644,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>757.753380237147</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>733.6048918821133</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
@@ -35665,7 +35667,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689818</v>
+        <v>282.5673928090785</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>598.339655424071</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>757.753380237147</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35890,13 +35892,13 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N17" t="n">
-        <v>621.352700430445</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P17" t="n">
         <v>534.50171506985</v>
@@ -35905,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,13 +35971,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>757.753380237147</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>598.339655424071</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>87.49261310237</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,16 +36682,16 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>516.9120523430244</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
-        <v>87.49261310237</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37309,7 +37311,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L35" t="n">
-        <v>719.7892927396346</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M35" t="n">
         <v>784.1601929209636</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>370.8892755450506</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37789,7 +37791,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>760.7889056955737</v>
+        <v>677.9849323583327</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
@@ -37859,13 +37861,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>44.19067509569723</v>
       </c>
       <c r="M42" t="n">
-        <v>120.9475160573612</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37874,7 +37876,7 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,16 +38019,16 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>81.46765502888069</v>
+        <v>701.3562195837223</v>
       </c>
       <c r="N44" t="n">
-        <v>757.753380237147</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
@@ -38035,10 +38037,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
-        <v>371.6049244215989</v>
+        <v>263.9199460266349</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_17.xlsx
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5312247.587582165</v>
+        <v>5312247.587582167</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8325935.809578475</v>
+        <v>8325935.809578474</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388.3430365919147</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>15.72496191388041</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -822,7 +822,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>37.84255357379566</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>153.0251390105127</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>388.3430365919147</v>
       </c>
       <c r="C5" t="n">
-        <v>191.9284811707548</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>180.6077930059085</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1141,7 +1141,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>20.48477761921182</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
@@ -1153,7 +1153,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>213.2651380376728</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -1201,7 +1201,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1296,22 +1296,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>191.6406548364337</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1387,10 +1387,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>3.575621745596433</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
@@ -1432,10 +1432,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>252.9193615460193</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128957</v>
+        <v>180.6077930059087</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>84.76227032663424</v>
       </c>
       <c r="V14" t="n">
-        <v>227.3398802200798</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>98.9457413571089</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>180.6077930059087</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>371.26328835217</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>404.6410012660961</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -1912,7 +1912,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>94.85221834567521</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>62.9608789492799</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,10 +2083,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>363.9585094926619</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -2095,13 +2095,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>119.0575367347623</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.5952110672386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>334.0755358138493</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>166.6895325984412</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
@@ -2535,13 +2535,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>180.6077930059077</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2566,16 +2566,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>378.9769832968749</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -2730,10 +2730,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>54.68688746169106</v>
       </c>
       <c r="I28" t="n">
-        <v>73.20963479298804</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>97.46748333863208</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -2809,10 +2809,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>304.7162152260364</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>129.1658792212797</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -3003,7 +3003,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>180.4964215242407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
@@ -3037,7 +3037,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>373.8316553010464</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
@@ -3046,7 +3046,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -3085,7 +3085,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>119.8051733265733</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3207,7 +3207,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>93.87738435325643</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>27.35334490128935</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.4066896505621</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3435,16 +3435,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>106.9706214097034</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>13.88126300749902</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3559,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>157.4229911737221</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.85798684944108</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>21.44088782360939</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -3751,7 +3751,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>27.108072216789</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
@@ -3760,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>170.250515382732</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3982,13 +3982,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>10.70725489880965</v>
       </c>
       <c r="E44" t="n">
-        <v>303.3766210912208</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>98.4126256305213</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>213.5952110672384</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1695.988587952916</v>
+        <v>876.4530309326553</v>
       </c>
       <c r="C2" t="n">
-        <v>1285.863997266186</v>
+        <v>876.4530309326553</v>
       </c>
       <c r="D2" t="n">
-        <v>1285.863997266186</v>
+        <v>471.9891010257159</v>
       </c>
       <c r="E2" t="n">
-        <v>871.5237817830823</v>
+        <v>57.64888554261256</v>
       </c>
       <c r="F2" t="n">
-        <v>450.4933697367699</v>
+        <v>57.64888554261256</v>
       </c>
       <c r="G2" t="n">
         <v>41.76508562960205</v>
@@ -4330,25 +4330,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>692.8507596625949</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L2" t="n">
-        <v>1209.69369432892</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M2" t="n">
-        <v>1726.536628995245</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N2" t="n">
-        <v>1726.536628995245</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O2" t="n">
-        <v>1726.536628995245</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P2" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4372,10 +4372,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>2088.254281480102</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="Y2" t="n">
-        <v>2088.254281480102</v>
+        <v>1286.674210597145</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922355</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>690.3841994575342</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L3" t="n">
-        <v>1025.008892784822</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M3" t="n">
-        <v>1541.851827451147</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.851827451147</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O3" t="n">
-        <v>2058.694762117472</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="Q3" t="n">
-        <v>2058.694762117472</v>
+        <v>2073.914533474168</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4448,13 +4448,13 @@
         <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>367.429305553252</v>
+        <v>212.8584580678856</v>
       </c>
       <c r="C4" t="n">
-        <v>196.3359331149685</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4521,19 +4521,19 @@
         <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>1416.593134765086</v>
       </c>
       <c r="V4" t="n">
-        <v>1297.278237189974</v>
+        <v>1142.707389704608</v>
       </c>
       <c r="W4" t="n">
-        <v>1018.208572698848</v>
+        <v>863.6377252134819</v>
       </c>
       <c r="X4" t="n">
-        <v>779.8647105585317</v>
+        <v>625.2938630731653</v>
       </c>
       <c r="Y4" t="n">
-        <v>555.1290119472964</v>
+        <v>400.5581644619299</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>235.6322383273342</v>
+        <v>1695.988587952916</v>
       </c>
       <c r="C5" t="n">
-        <v>41.76508562960205</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D5" t="n">
-        <v>41.76508562960205</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E5" t="n">
-        <v>41.76508562960205</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F5" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G5" t="n">
         <v>41.76508562960205</v>
@@ -4570,25 +4570,25 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
+        <v>295.9505570973564</v>
+      </c>
+      <c r="L5" t="n">
+        <v>295.9505570973564</v>
+      </c>
+      <c r="M5" t="n">
         <v>812.7934917636817</v>
       </c>
-      <c r="L5" t="n">
-        <v>1014.011766457887</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1530.854701124212</v>
-      </c>
       <c r="N5" t="n">
-        <v>2047.697635790537</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O5" t="n">
-        <v>2047.697635790537</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4600,19 +4600,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1831.193789739612</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1831.193789739612</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1447.433488874781</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>1046.790091043734</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y5" t="n">
-        <v>645.8534179918237</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L6" t="n">
-        <v>558.6080202959273</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M6" t="n">
-        <v>1054.568412147451</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N6" t="n">
-        <v>1571.411346813777</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="O6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.76508562960205</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960205</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>503.2668642681101</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>224.1971997769844</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>41.76508562960205</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.76508562960205</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2461.166649056344</v>
+        <v>2153.869890821028</v>
       </c>
       <c r="C8" t="n">
-        <v>2051.042058369614</v>
+        <v>1743.745300134298</v>
       </c>
       <c r="D8" t="n">
-        <v>1646.578128462675</v>
+        <v>1339.281370227359</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.237912979571</v>
+        <v>1318.589675662498</v>
       </c>
       <c r="F8" t="n">
-        <v>811.207500933259</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="G8" t="n">
-        <v>402.4792168260911</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H8" t="n">
-        <v>91.57071945380915</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I8" t="n">
         <v>91.57071945380915</v>
@@ -4810,46 +4810,46 @@
         <v>883.9156920306029</v>
       </c>
       <c r="L8" t="n">
-        <v>1514.531158238972</v>
+        <v>1596.507091842841</v>
       </c>
       <c r="M8" t="n">
-        <v>2290.849749230726</v>
+        <v>2372.825682834595</v>
       </c>
       <c r="N8" t="n">
-        <v>3044.030765869344</v>
+        <v>3126.006699473213</v>
       </c>
       <c r="O8" t="n">
-        <v>3687.661622286449</v>
+        <v>3769.637555890318</v>
       </c>
       <c r="P8" t="n">
-        <v>4216.818320205601</v>
+        <v>4298.794253809469</v>
       </c>
       <c r="Q8" t="n">
-        <v>4537.979327000892</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R8" t="n">
         <v>4578.535972690457</v>
       </c>
       <c r="S8" t="n">
-        <v>4443.254897484558</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="T8" t="n">
-        <v>4221.048413431417</v>
+        <v>4356.329488637316</v>
       </c>
       <c r="U8" t="n">
-        <v>4005.629082080232</v>
+        <v>4099.268996896826</v>
       </c>
       <c r="V8" t="n">
-        <v>3655.791527416713</v>
+        <v>3749.431442233307</v>
       </c>
       <c r="W8" t="n">
-        <v>3272.031226551881</v>
+        <v>3365.671141368475</v>
       </c>
       <c r="X8" t="n">
-        <v>2871.387828720834</v>
+        <v>2965.027743537428</v>
       </c>
       <c r="Y8" t="n">
-        <v>2871.387828720834</v>
+        <v>2564.091070485518</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>91.57071945380915</v>
       </c>
       <c r="J9" t="n">
-        <v>91.57071945380915</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="K9" t="n">
-        <v>91.57071945380915</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="L9" t="n">
-        <v>91.57071945380915</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="M9" t="n">
-        <v>934.5478001483758</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="N9" t="n">
-        <v>1808.205892259994</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="O9" t="n">
-        <v>2138.059915304309</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="P9" t="n">
-        <v>2138.059915304309</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="Q9" t="n">
-        <v>2138.059915304309</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="R9" t="n">
         <v>2138.059915304309</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>412.271547086636</v>
+        <v>1180.904569754946</v>
       </c>
       <c r="C10" t="n">
-        <v>241.1781746483525</v>
+        <v>1009.811197316662</v>
       </c>
       <c r="D10" t="n">
-        <v>241.1781746483525</v>
+        <v>850.3165526395721</v>
       </c>
       <c r="E10" t="n">
-        <v>241.1781746483525</v>
+        <v>689.4057375078917</v>
       </c>
       <c r="F10" t="n">
-        <v>241.1781746483525</v>
+        <v>524.7746116184829</v>
       </c>
       <c r="G10" t="n">
-        <v>241.1781746483525</v>
+        <v>357.5242205440263</v>
       </c>
       <c r="H10" t="n">
-        <v>91.57071945380915</v>
+        <v>207.916765349483</v>
       </c>
       <c r="I10" t="n">
         <v>91.57071945380915</v>
@@ -4986,28 +4986,28 @@
         <v>1620.969616074659</v>
       </c>
       <c r="R10" t="n">
-        <v>1535.696897750059</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S10" t="n">
-        <v>1535.696897750059</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T10" t="n">
-        <v>1535.696897750059</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="U10" t="n">
-        <v>1535.696897750059</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="V10" t="n">
-        <v>1342.120478723358</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="W10" t="n">
-        <v>1063.050814232232</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="X10" t="n">
-        <v>824.7069520919157</v>
+        <v>1593.339974760225</v>
       </c>
       <c r="Y10" t="n">
-        <v>599.9712534806804</v>
+        <v>1368.60427614899</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2547.518411739271</v>
+        <v>2153.869890821028</v>
       </c>
       <c r="C11" t="n">
-        <v>2137.393821052541</v>
+        <v>1743.745300134298</v>
       </c>
       <c r="D11" t="n">
-        <v>1732.929891145602</v>
+        <v>1339.281370227359</v>
       </c>
       <c r="E11" t="n">
-        <v>1318.589675662498</v>
+        <v>924.9411547442555</v>
       </c>
       <c r="F11" t="n">
-        <v>897.5592636161858</v>
+        <v>503.9107426979431</v>
       </c>
       <c r="G11" t="n">
-        <v>488.830979509018</v>
+        <v>95.18245859077524</v>
       </c>
       <c r="H11" t="n">
-        <v>177.922482136736</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I11" t="n">
         <v>91.57071945380915</v>
       </c>
       <c r="J11" t="n">
-        <v>345.7561909215634</v>
+        <v>263.7802573176947</v>
       </c>
       <c r="K11" t="n">
-        <v>883.9156920306029</v>
+        <v>801.9397584267342</v>
       </c>
       <c r="L11" t="n">
-        <v>1596.507091842841</v>
+        <v>1514.531158238972</v>
       </c>
       <c r="M11" t="n">
-        <v>2372.825682834595</v>
+        <v>2290.849749230726</v>
       </c>
       <c r="N11" t="n">
-        <v>3126.006699473213</v>
+        <v>3044.030765869344</v>
       </c>
       <c r="O11" t="n">
-        <v>3769.637555890318</v>
+        <v>3687.661622286449</v>
       </c>
       <c r="P11" t="n">
-        <v>4298.794253809469</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q11" t="n">
-        <v>4578.535972690457</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R11" t="n">
         <v>4578.535972690457</v>
       </c>
       <c r="S11" t="n">
-        <v>4443.254897484558</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="T11" t="n">
-        <v>4221.048413431417</v>
+        <v>4356.329488637316</v>
       </c>
       <c r="U11" t="n">
-        <v>3963.987921690927</v>
+        <v>4099.268996896826</v>
       </c>
       <c r="V11" t="n">
-        <v>3614.150367027407</v>
+        <v>3749.431442233307</v>
       </c>
       <c r="W11" t="n">
-        <v>3358.676264455671</v>
+        <v>3365.671141368475</v>
       </c>
       <c r="X11" t="n">
-        <v>3358.676264455671</v>
+        <v>2965.027743537428</v>
       </c>
       <c r="Y11" t="n">
-        <v>2957.739591403761</v>
+        <v>2564.091070485518</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>91.57071945380915</v>
       </c>
       <c r="J12" t="n">
-        <v>91.57071945380915</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="K12" t="n">
-        <v>91.57071945380915</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="L12" t="n">
-        <v>91.57071945380915</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="M12" t="n">
-        <v>560.4447326467969</v>
+        <v>1226.509558131796</v>
       </c>
       <c r="N12" t="n">
-        <v>1434.102824758415</v>
+        <v>1226.509558131796</v>
       </c>
       <c r="O12" t="n">
-        <v>2138.059915304309</v>
+        <v>1226.509558131796</v>
       </c>
       <c r="P12" t="n">
-        <v>2138.059915304309</v>
+        <v>1788.215450620326</v>
       </c>
       <c r="Q12" t="n">
         <v>2138.059915304309</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1180.904569754946</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C13" t="n">
-        <v>1009.811197316662</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D13" t="n">
-        <v>850.3165526395721</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E13" t="n">
-        <v>689.4057375078917</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F13" t="n">
-        <v>524.7746116184829</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G13" t="n">
-        <v>357.5242205440263</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H13" t="n">
-        <v>207.916765349483</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I13" t="n">
         <v>91.57071945380915</v>
@@ -5223,28 +5223,28 @@
         <v>1620.969616074659</v>
       </c>
       <c r="R13" t="n">
-        <v>1620.969616074659</v>
+        <v>1535.696897750059</v>
       </c>
       <c r="S13" t="n">
-        <v>1620.969616074659</v>
+        <v>1349.305129629969</v>
       </c>
       <c r="T13" t="n">
-        <v>1620.969616074659</v>
+        <v>1109.756390606671</v>
       </c>
       <c r="U13" t="n">
-        <v>1620.969616074659</v>
+        <v>826.9582431527954</v>
       </c>
       <c r="V13" t="n">
-        <v>1620.969616074659</v>
+        <v>553.0724980923173</v>
       </c>
       <c r="W13" t="n">
-        <v>1620.969616074659</v>
+        <v>274.0028336011917</v>
       </c>
       <c r="X13" t="n">
-        <v>1593.339974760225</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="Y13" t="n">
-        <v>1368.60427614899</v>
+        <v>91.57071945380915</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2138.790127632103</v>
+        <v>2547.518411739271</v>
       </c>
       <c r="C14" t="n">
-        <v>1728.665536945373</v>
+        <v>2137.393821052541</v>
       </c>
       <c r="D14" t="n">
-        <v>1324.201607038434</v>
+        <v>1732.929891145602</v>
       </c>
       <c r="E14" t="n">
-        <v>909.8613915553304</v>
+        <v>1318.589675662498</v>
       </c>
       <c r="F14" t="n">
-        <v>488.830979509018</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="G14" t="n">
         <v>488.830979509018</v>
@@ -5305,25 +5305,25 @@
         <v>4578.535972690457</v>
       </c>
       <c r="S14" t="n">
-        <v>4443.254897484558</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="T14" t="n">
-        <v>4221.048413431417</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="U14" t="n">
-        <v>3963.987921690927</v>
+        <v>4492.917517815069</v>
       </c>
       <c r="V14" t="n">
-        <v>3734.351679044381</v>
+        <v>4143.079963151549</v>
       </c>
       <c r="W14" t="n">
-        <v>3350.59137817955</v>
+        <v>3759.319662286718</v>
       </c>
       <c r="X14" t="n">
-        <v>2949.947980348502</v>
+        <v>3358.676264455671</v>
       </c>
       <c r="Y14" t="n">
-        <v>2549.011307296592</v>
+        <v>2957.739591403761</v>
       </c>
     </row>
     <row r="15">
@@ -5360,25 +5360,25 @@
         <v>91.57071945380915</v>
       </c>
       <c r="K15" t="n">
-        <v>91.57071945380915</v>
+        <v>547.3769757191078</v>
       </c>
       <c r="L15" t="n">
-        <v>91.57071945380915</v>
+        <v>547.3769757191078</v>
       </c>
       <c r="M15" t="n">
-        <v>934.5478001483758</v>
+        <v>547.3769757191078</v>
       </c>
       <c r="N15" t="n">
-        <v>1808.205892259994</v>
+        <v>547.3769757191078</v>
       </c>
       <c r="O15" t="n">
-        <v>2138.059915304309</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="P15" t="n">
-        <v>2138.059915304309</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="Q15" t="n">
-        <v>2138.059915304309</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="R15" t="n">
         <v>2138.059915304309</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1109.756390606671</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C16" t="n">
-        <v>1009.811197316662</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D16" t="n">
-        <v>850.3165526395721</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E16" t="n">
-        <v>689.4057375078917</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F16" t="n">
-        <v>524.7746116184829</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G16" t="n">
-        <v>357.5242205440263</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H16" t="n">
-        <v>207.916765349483</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I16" t="n">
         <v>91.57071945380915</v>
@@ -5469,19 +5469,19 @@
         <v>1109.756390606671</v>
       </c>
       <c r="U16" t="n">
-        <v>1109.756390606671</v>
+        <v>826.9582431527954</v>
       </c>
       <c r="V16" t="n">
-        <v>1109.756390606671</v>
+        <v>553.0724980923173</v>
       </c>
       <c r="W16" t="n">
-        <v>1109.756390606671</v>
+        <v>274.0028336011917</v>
       </c>
       <c r="X16" t="n">
-        <v>1109.756390606671</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="Y16" t="n">
-        <v>1109.756390606671</v>
+        <v>91.57071945380915</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2503.174400507722</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>2093.049809820992</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1688.585879914052</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>1274.245664430949</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
         <v>899.2322418529996</v>
@@ -5515,10 +5515,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y17" t="n">
-        <v>2913.395580172211</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="18">
@@ -5606,7 +5606,7 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>648.3393773611919</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="C19" t="n">
-        <v>477.2460049229084</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="D19" t="n">
-        <v>317.7513602458184</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="E19" t="n">
-        <v>156.8405451141379</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F19" t="n">
-        <v>156.8405451141379</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5709,16 +5709,16 @@
         <v>1339.844446857597</v>
       </c>
       <c r="V19" t="n">
-        <v>1339.844446857597</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W19" t="n">
-        <v>1060.774782366472</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="X19" t="n">
-        <v>1060.774782366472</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="Y19" t="n">
-        <v>836.0390837552362</v>
+        <v>786.8890373059935</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>2102.237727455811</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.2436976906228</v>
+        <v>821.2260433431736</v>
       </c>
       <c r="C22" t="n">
-        <v>93.2436976906228</v>
+        <v>821.2260433431736</v>
       </c>
       <c r="D22" t="n">
-        <v>93.2436976906228</v>
+        <v>661.7313986660836</v>
       </c>
       <c r="E22" t="n">
-        <v>93.2436976906228</v>
+        <v>541.471260550162</v>
       </c>
       <c r="F22" t="n">
-        <v>93.2436976906228</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5946,16 +5946,16 @@
         <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>826.4099627738212</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="W22" t="n">
-        <v>547.3402982826956</v>
+        <v>821.2260433431736</v>
       </c>
       <c r="X22" t="n">
-        <v>308.996436142379</v>
+        <v>821.2260433431736</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.2436976906228</v>
+        <v>821.2260433431736</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C23" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D23" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E23" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F23" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G23" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W23" t="n">
-        <v>3674.640877840605</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X23" t="n">
-        <v>3273.997480009557</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y23" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>1210.13812587521</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>2053.115206569777</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N24" t="n">
-        <v>2053.115206569777</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O24" t="n">
-        <v>2053.115206569777</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P24" t="n">
-        <v>2053.115206569777</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3132.785987910289</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="C25" t="n">
-        <v>3132.785987910289</v>
+        <v>745.5306744632587</v>
       </c>
       <c r="D25" t="n">
-        <v>3132.785987910289</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="E25" t="n">
-        <v>3132.785987910289</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F25" t="n">
-        <v>3132.785987910289</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4390.520398086449</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T25" t="n">
-        <v>4150.971659063151</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U25" t="n">
-        <v>3868.173511609275</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V25" t="n">
-        <v>3594.287766548796</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="W25" t="n">
-        <v>3315.218102057671</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="X25" t="n">
-        <v>3132.785987910289</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="Y25" t="n">
-        <v>3132.785987910289</v>
+        <v>913.9039397142094</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C26" t="n">
-        <v>2052.715036606428</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D26" t="n">
-        <v>1648.251106699488</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E26" t="n">
-        <v>1233.910891216385</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F26" t="n">
-        <v>812.8804791700727</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G26" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="27">
@@ -6311,16 +6311,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>754.331869609911</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N27" t="n">
-        <v>1627.989961721529</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O27" t="n">
-        <v>1627.989961721529</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>980.6859834725187</v>
+        <v>4011.405617385543</v>
       </c>
       <c r="C28" t="n">
-        <v>809.5926110342352</v>
+        <v>3840.31224494726</v>
       </c>
       <c r="D28" t="n">
-        <v>809.5926110342352</v>
+        <v>3680.81760027017</v>
       </c>
       <c r="E28" t="n">
-        <v>648.6817959025548</v>
+        <v>3519.906785138489</v>
       </c>
       <c r="F28" t="n">
-        <v>484.050670013146</v>
+        <v>3355.27565924908</v>
       </c>
       <c r="G28" t="n">
-        <v>316.8002789386894</v>
+        <v>3188.025268174624</v>
       </c>
       <c r="H28" t="n">
-        <v>167.1928237441461</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J28" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K28" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L28" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M28" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N28" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O28" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P28" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S28" t="n">
-        <v>1537.369875986873</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T28" t="n">
-        <v>1537.369875986873</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U28" t="n">
-        <v>1254.571728532997</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V28" t="n">
-        <v>980.6859834725187</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W28" t="n">
-        <v>980.6859834725187</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="X28" t="n">
-        <v>980.6859834725187</v>
+        <v>4423.841022390823</v>
       </c>
       <c r="Y28" t="n">
-        <v>980.6859834725187</v>
+        <v>4199.105323779588</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2237.518802661711</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6493,22 +6493,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4182.917908737509</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V29" t="n">
-        <v>3833.080354073989</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W29" t="n">
-        <v>3449.320053209158</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X29" t="n">
-        <v>3048.67665537811</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y29" t="n">
-        <v>2647.7399823262</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="30">
@@ -6651,22 +6651,22 @@
         <v>1436.250826191383</v>
       </c>
       <c r="T31" t="n">
-        <v>1436.250826191383</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U31" t="n">
-        <v>1436.250826191383</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="V31" t="n">
-        <v>1436.250826191383</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="W31" t="n">
-        <v>1436.250826191383</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="X31" t="n">
-        <v>1436.250826191383</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="Y31" t="n">
-        <v>1253.93120849013</v>
+        <v>1196.702087168085</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2512.458907120301</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C32" t="n">
-        <v>2102.334316433571</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D32" t="n">
-        <v>1697.870386526632</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H32" t="n">
         <v>179.5954603735497</v>
@@ -6733,19 +6733,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4183.681998679601</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C33" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D33" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E33" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G33" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H33" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>3071.501944945938</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>3732.590116865226</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>3732.590116865226</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N33" t="n">
-        <v>3732.590116865226</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O33" t="n">
-        <v>3732.590116865226</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P33" t="n">
-        <v>4294.296009353757</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q33" t="n">
-        <v>4644.14047403774</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R33" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S33" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T33" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U33" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V33" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W33" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X33" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y33" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1161.057142856951</v>
+        <v>4222.119838211426</v>
       </c>
       <c r="C34" t="n">
-        <v>989.9637704186671</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="D34" t="n">
-        <v>830.469125741577</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E34" t="n">
-        <v>669.5583106098966</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F34" t="n">
-        <v>504.9271847204878</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G34" t="n">
-        <v>337.6767936460312</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H34" t="n">
-        <v>188.0693384514879</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J34" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K34" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L34" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M34" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N34" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O34" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P34" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V34" t="n">
-        <v>1348.756849250995</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W34" t="n">
-        <v>1348.756849250995</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="X34" t="n">
-        <v>1348.756849250995</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1348.756849250995</v>
+        <v>4409.819544605471</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K35" t="n">
         <v>885.5886702674165</v>
@@ -6970,19 +6970,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="U35" t="n">
-        <v>4408.238733368956</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V35" t="n">
-        <v>4058.401178705436</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W35" t="n">
-        <v>3674.640877840605</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X35" t="n">
-        <v>3273.997480009557</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y35" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="36">
@@ -7028,7 +7028,7 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O36" t="n">
         <v>2139.732893541123</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1182.57754799176</v>
+        <v>584.7425299376769</v>
       </c>
       <c r="C37" t="n">
-        <v>1011.484175553476</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="D37" t="n">
-        <v>851.989530876386</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E37" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7131,16 +7131,16 @@
         <v>1622.642594311473</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.642594311473</v>
+        <v>1514.591461574399</v>
       </c>
       <c r="W37" t="n">
-        <v>1622.642594311473</v>
+        <v>1235.521797083273</v>
       </c>
       <c r="X37" t="n">
-        <v>1384.298732171156</v>
+        <v>997.1779349429565</v>
       </c>
       <c r="Y37" t="n">
-        <v>1370.277254385804</v>
+        <v>772.4422363317212</v>
       </c>
     </row>
     <row r="38">
@@ -7174,7 +7174,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K38" t="n">
         <v>885.5886702674165</v>
@@ -7207,10 +7207,10 @@
         <v>4526.90380932524</v>
       </c>
       <c r="U38" t="n">
-        <v>4494.590496051882</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V38" t="n">
-        <v>4144.752941388363</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W38" t="n">
         <v>3760.992640523532</v>
@@ -7256,22 +7256,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>549.0499539559215</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N39" t="n">
-        <v>1422.708046067539</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O39" t="n">
-        <v>1422.708046067539</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P39" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.2436976906228</v>
+        <v>453.2449236514532</v>
       </c>
       <c r="C40" t="n">
-        <v>93.2436976906228</v>
+        <v>282.1515512131697</v>
       </c>
       <c r="D40" t="n">
-        <v>93.2436976906228</v>
+        <v>282.1515512131697</v>
       </c>
       <c r="E40" t="n">
-        <v>93.2436976906228</v>
+        <v>282.1515512131697</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>282.1515512131697</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>114.9011601387131</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>114.9011601387131</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7359,25 +7359,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1196.702087168085</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>913.9039397142094</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V40" t="n">
-        <v>640.0181946537314</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="W40" t="n">
-        <v>640.0181946537314</v>
+        <v>1104.024190797049</v>
       </c>
       <c r="X40" t="n">
-        <v>401.6743325134148</v>
+        <v>865.6803286567329</v>
       </c>
       <c r="Y40" t="n">
-        <v>176.9386339021794</v>
+        <v>640.9446300454975</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2153.869890821028</v>
+        <v>2461.166649056344</v>
       </c>
       <c r="C41" t="n">
-        <v>1743.745300134298</v>
+        <v>2051.042058369614</v>
       </c>
       <c r="D41" t="n">
-        <v>1339.281370227359</v>
+        <v>1646.578128462675</v>
       </c>
       <c r="E41" t="n">
-        <v>924.9411547442555</v>
+        <v>1232.237912979571</v>
       </c>
       <c r="F41" t="n">
-        <v>897.5592636161858</v>
+        <v>811.207500933259</v>
       </c>
       <c r="G41" t="n">
-        <v>488.830979509018</v>
+        <v>402.4792168260911</v>
       </c>
       <c r="H41" t="n">
-        <v>177.922482136736</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I41" t="n">
         <v>91.57071945380915</v>
       </c>
       <c r="J41" t="n">
-        <v>345.7561909215634</v>
+        <v>263.7802573176947</v>
       </c>
       <c r="K41" t="n">
-        <v>883.9156920306029</v>
+        <v>801.9397584267342</v>
       </c>
       <c r="L41" t="n">
-        <v>1596.507091842841</v>
+        <v>1514.531158238972</v>
       </c>
       <c r="M41" t="n">
-        <v>2372.825682834595</v>
+        <v>2290.849749230726</v>
       </c>
       <c r="N41" t="n">
         <v>3044.030765869344</v>
@@ -7441,22 +7441,22 @@
         <v>4578.535972690457</v>
       </c>
       <c r="T41" t="n">
-        <v>4356.329488637316</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="U41" t="n">
-        <v>4099.268996896826</v>
+        <v>4406.565755132142</v>
       </c>
       <c r="V41" t="n">
-        <v>3749.431442233307</v>
+        <v>4056.728200468623</v>
       </c>
       <c r="W41" t="n">
-        <v>3365.671141368475</v>
+        <v>3672.967899603791</v>
       </c>
       <c r="X41" t="n">
-        <v>2965.027743537428</v>
+        <v>3272.324501772744</v>
       </c>
       <c r="Y41" t="n">
-        <v>2564.091070485518</v>
+        <v>2871.387828720834</v>
       </c>
     </row>
     <row r="42">
@@ -7493,13 +7493,13 @@
         <v>91.57071945380915</v>
       </c>
       <c r="K42" t="n">
-        <v>547.3769757191078</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="L42" t="n">
-        <v>591.1257440638481</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="M42" t="n">
-        <v>1434.102824758415</v>
+        <v>560.4447326467969</v>
       </c>
       <c r="N42" t="n">
         <v>1434.102824758415</v>
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2018.588815615129</v>
+        <v>2153.869890821028</v>
       </c>
       <c r="C44" t="n">
-        <v>1608.464224928399</v>
+        <v>1743.745300134298</v>
       </c>
       <c r="D44" t="n">
-        <v>1204.000295021459</v>
+        <v>1732.929891145602</v>
       </c>
       <c r="E44" t="n">
-        <v>897.5592636161858</v>
+        <v>1318.589675662498</v>
       </c>
       <c r="F44" t="n">
         <v>897.5592636161858</v>
@@ -7657,16 +7657,16 @@
         <v>1596.507091842841</v>
       </c>
       <c r="M44" t="n">
-        <v>2290.849749230726</v>
+        <v>2372.825682834595</v>
       </c>
       <c r="N44" t="n">
-        <v>3044.030765869344</v>
+        <v>3126.006699473213</v>
       </c>
       <c r="O44" t="n">
-        <v>3687.661622286449</v>
+        <v>3769.637555890318</v>
       </c>
       <c r="P44" t="n">
-        <v>4216.818320205601</v>
+        <v>4298.794253809469</v>
       </c>
       <c r="Q44" t="n">
         <v>4537.979327000892</v>
@@ -7675,25 +7675,25 @@
         <v>4578.535972690457</v>
       </c>
       <c r="S44" t="n">
-        <v>4443.254897484558</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="T44" t="n">
-        <v>4221.048413431417</v>
+        <v>4356.329488637316</v>
       </c>
       <c r="U44" t="n">
-        <v>3963.987921690927</v>
+        <v>4099.268996896826</v>
       </c>
       <c r="V44" t="n">
-        <v>3614.150367027407</v>
+        <v>3749.431442233307</v>
       </c>
       <c r="W44" t="n">
-        <v>3230.390066162576</v>
+        <v>3365.671141368475</v>
       </c>
       <c r="X44" t="n">
-        <v>2829.746668331528</v>
+        <v>2965.027743537428</v>
       </c>
       <c r="Y44" t="n">
-        <v>2428.809995279618</v>
+        <v>2564.091070485518</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>91.57071945380915</v>
       </c>
       <c r="J45" t="n">
-        <v>91.57071945380915</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="K45" t="n">
-        <v>91.57071945380915</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="L45" t="n">
-        <v>91.57071945380915</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="M45" t="n">
-        <v>91.57071945380915</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="N45" t="n">
-        <v>965.228811565427</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="O45" t="n">
-        <v>1226.509558131796</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="P45" t="n">
-        <v>1788.215450620326</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="Q45" t="n">
-        <v>2138.059915304309</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="R45" t="n">
         <v>2138.059915304309</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>307.3234579055651</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C46" t="n">
-        <v>307.3234579055651</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D46" t="n">
-        <v>307.3234579055651</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E46" t="n">
-        <v>307.3234579055651</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F46" t="n">
-        <v>307.3234579055651</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G46" t="n">
-        <v>307.3234579055651</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H46" t="n">
-        <v>207.916765349483</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I46" t="n">
         <v>91.57071945380915</v>
@@ -7851,7 +7851,7 @@
         <v>307.3234579055651</v>
       </c>
       <c r="Y46" t="n">
-        <v>307.3234579055651</v>
+        <v>91.57071945380915</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>490.0456851936601</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>553.1935596277625</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8063,25 +8063,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>394.1192645454831</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>73.48479305079361</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,28 +8218,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>298.736180582244</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>534.7878950544006</v>
       </c>
       <c r="O5" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>55.82578278461539</v>
@@ -8303,22 +8303,22 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>558.5343765177347</v>
+        <v>502.6011371814504</v>
       </c>
       <c r="N6" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8458,7 +8458,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>732.4707174652381</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
         <v>877.4504173780091</v>
@@ -8473,10 +8473,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>372.6011972082306</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>935.6763147186165</v>
+        <v>514.5673383305423</v>
       </c>
       <c r="O9" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>247.2726194786469</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8710,10 +8710,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>372.6011972082306</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,28 +8768,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>531.1743980747686</v>
+        <v>548.7963290415026</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -9008,28 +9008,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>390.9373608629449</v>
+        <v>713.8858861212705</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9254,10 +9254,10 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9719,25 +9719,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
-        <v>53.19339339374999</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O24" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>144.1852316072087</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9959,19 +9959,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P27" t="n">
-        <v>571.1716873458281</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10430,28 +10430,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P33" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
-        <v>77.22687637146549</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10676,10 +10676,10 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10904,25 +10904,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
-        <v>425.1489105478544</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>247.2726194786469</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11071,7 +11071,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>770.897223114952</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
@@ -11141,16 +11141,16 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>100.3051989065463</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747686</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
         <v>768.8192472281761</v>
@@ -11305,7 +11305,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>794.6464440407678</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
         <v>853.701196452193</v>
@@ -11317,7 +11317,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>331.6348884308923</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11375,22 +11375,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476414</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>321.6714250266349</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
@@ -11399,7 +11399,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17.77593127592985</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>388.9160393522157</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -22612,10 +22612,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22710,7 +22710,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>120.0571446565234</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
@@ -22725,7 +22725,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22761,7 +22761,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>126.9450269688244</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22783,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>17.77593127592985</v>
       </c>
       <c r="C5" t="n">
-        <v>214.0948636091077</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -22840,19 +22840,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>55.35263051300493</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23029,7 +23029,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>389.7120357090604</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>41.22474878541223</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23184,22 +23184,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -23238,13 +23238,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>79.50623277343956</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>304.2237906529627</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23320,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>127.0033363101638</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176239</v>
+        <v>55.35263051300473</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>169.7276164964508</v>
       </c>
       <c r="V14" t="n">
-        <v>118.9992988968043</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>70.43669735679175</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300473</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>45.55681957367926</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>64.44948863468851</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>102.6170082144321</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>36.46078111520814</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>40.24417024560138</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.893130557884348</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>62.56142803888764</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>2.692906115459493</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>55.35263051300575</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>37.84312462897441</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>93.42449318090684</v>
       </c>
       <c r="I28" t="n">
-        <v>41.97295064372906</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
@@ -24657,19 +24657,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>308.5558614412305</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>3.08319717252283</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>56.65683010882424</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
@@ -24906,7 +24906,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>41.9919201008822</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>36.36515802722585</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>21.30520108346067</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176241</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>3.083197172522915</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>164.1762662001699</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25447,13 +25447,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>222.499706682461</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>102.9647224806629</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
@@ -25563,13 +25563,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>93.7416976131077</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,19 +25599,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>389.7120357090603</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>84.23937144035295</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25870,13 +25870,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>389.7120357090604</v>
       </c>
       <c r="E44" t="n">
-        <v>106.8201922370515</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>49.6987550120766</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884518</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>504186.3875931785</v>
+        <v>504186.3875931783</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>759009.4272679704</v>
+        <v>759009.4272679699</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>759009.4272679702</v>
+        <v>759009.4272679699</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>767568.9689679982</v>
+        <v>767568.9689679979</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>767568.9689679982</v>
+        <v>767568.9689679979</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>767568.9689679983</v>
+        <v>767568.9689679982</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>767568.9689679982</v>
+        <v>767568.9689679981</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>767568.9689679982</v>
+        <v>767568.9689679983</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>767568.9689679982</v>
+        <v>767568.9689679983</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>759009.4272679702</v>
+        <v>759009.4272679703</v>
       </c>
     </row>
     <row r="16">
@@ -26319,19 +26319,19 @@
         <v>161720.1620581895</v>
       </c>
       <c r="D2" t="n">
+        <v>243455.854029349</v>
+      </c>
+      <c r="E2" t="n">
         <v>243455.8540293491</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>243455.854029349</v>
-      </c>
-      <c r="F2" t="n">
-        <v>243455.8540293491</v>
       </c>
       <c r="G2" t="n">
         <v>246201.3674048298</v>
       </c>
       <c r="H2" t="n">
-        <v>246201.3674048297</v>
+        <v>246201.3674048298</v>
       </c>
       <c r="I2" t="n">
         <v>246201.3674048298</v>
@@ -26340,13 +26340,13 @@
         <v>246201.3674048298</v>
       </c>
       <c r="K2" t="n">
-        <v>246201.3674048297</v>
+        <v>246201.3674048298</v>
       </c>
       <c r="L2" t="n">
+        <v>246201.3674048298</v>
+      </c>
+      <c r="M2" t="n">
         <v>246201.3674048299</v>
-      </c>
-      <c r="M2" t="n">
-        <v>246201.3674048298</v>
       </c>
       <c r="N2" t="n">
         <v>246201.3674048298</v>
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>193389.0504351682</v>
+        <v>193389.0504351681</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>433.9049324434263</v>
       </c>
       <c r="D4" t="n">
-        <v>728.24113572818</v>
+        <v>728.2411357281798</v>
       </c>
       <c r="E4" t="n">
         <v>728.2411357281799</v>
@@ -26438,7 +26438,7 @@
         <v>738.1279301446466</v>
       </c>
       <c r="I4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="J4" t="n">
         <v>738.1279301446466</v>
@@ -26447,13 +26447,13 @@
         <v>738.1279301446466</v>
       </c>
       <c r="L4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="M4" t="n">
         <v>738.1279301446466</v>
       </c>
       <c r="N4" t="n">
-        <v>738.1279301446464</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="O4" t="n">
         <v>728.24113572818</v>
@@ -26521,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-79038.31784586559</v>
+        <v>-79038.31784586556</v>
       </c>
       <c r="C6" t="n">
         <v>95917.19204724848</v>
       </c>
       <c r="D6" t="n">
-        <v>-53882.78432644223</v>
+        <v>-53882.78432644224</v>
       </c>
       <c r="E6" t="n">
+        <v>173133.866108726</v>
+      </c>
+      <c r="F6" t="n">
         <v>173133.8661087259</v>
-      </c>
-      <c r="F6" t="n">
-        <v>173133.866108726</v>
       </c>
       <c r="G6" t="n">
         <v>168866.3012293485</v>
@@ -26542,19 +26542,19 @@
         <v>174598.0292298118</v>
       </c>
       <c r="I6" t="n">
+        <v>174598.0292298119</v>
+      </c>
+      <c r="J6" t="n">
+        <v>38003.22842391682</v>
+      </c>
+      <c r="K6" t="n">
         <v>174598.0292298118</v>
       </c>
-      <c r="J6" t="n">
-        <v>38003.22842391685</v>
-      </c>
-      <c r="K6" t="n">
-        <v>174598.0292298117</v>
-      </c>
       <c r="L6" t="n">
-        <v>17031.05835228195</v>
+        <v>17031.05835228183</v>
       </c>
       <c r="M6" t="n">
-        <v>174598.0292298118</v>
+        <v>174598.0292298119</v>
       </c>
       <c r="N6" t="n">
         <v>174598.0292298119</v>
@@ -27017,7 +27017,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>622.5704228025888</v>
+        <v>622.5704228025887</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27041,7 +27041,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>622.5704228025886</v>
+        <v>622.5704228025887</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27263,7 +27263,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>622.5704228025888</v>
+        <v>622.5704228025887</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>400.909295520443</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>460.0037840019794</v>
+      </c>
+      <c r="P2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34783,25 +34783,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>338.004740734634</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>203.2507825193992</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
+        <v>441.8756042977812</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35023,22 +35023,22 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>500.9700927793173</v>
+        <v>445.036853443033</v>
       </c>
       <c r="N6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35178,7 +35178,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>636.9853194023932</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
         <v>784.1601929209636</v>
@@ -35193,10 +35193,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>282.5673928090785</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>882.4829213248665</v>
+        <v>461.3739449367923</v>
       </c>
       <c r="O9" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825801</v>
+        <v>173.9490281453389</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35430,10 +35430,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>282.5673928090785</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>473.6101143363512</v>
+        <v>491.2320453030853</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>333.1858818629449</v>
+        <v>656.1344071212704</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35974,10 +35974,10 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.49261310237</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P27" t="n">
-        <v>516.9120523430244</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P33" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>18.22667726606008</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37396,10 +37396,10 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
-        <v>370.8892755450506</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>173.9490281453389</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37791,7 +37791,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>677.9849323583327</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>44.19067509569723</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363512</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
         <v>711.0677682281761</v>
@@ -38025,7 +38025,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>701.3562195837223</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
         <v>760.7889056955737</v>
@@ -38037,7 +38037,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>241.6010840317402</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>461.3739449367923</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>263.9199460266349</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
@@ -38119,7 +38119,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>832779.0439184546</v>
+        <v>829996.0547778782</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3783355.816622884</v>
+        <v>3783355.816622883</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8325935.809578474</v>
+        <v>8325935.809578475</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
@@ -670,16 +670,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>319.2556088537966</v>
       </c>
       <c r="G2" t="n">
-        <v>15.72496191388041</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>153.0251390105127</v>
+        <v>0.8343349499940063</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>388.3430365919147</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>11.89439304893099</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1056,25 +1056,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>115.4130206334751</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>27.35334490128912</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1141,7 +1141,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>20.48477761921182</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -1192,13 +1192,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>219.3358428067201</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1296,22 +1296,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>207.3172282905985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1384,13 +1384,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>3.575621745596433</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>14.92896555703617</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1593,10 +1593,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059087</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>213.5952110672384</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>84.76227032663424</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1675,7 +1675,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>266.574663613147</v>
       </c>
     </row>
     <row r="15">
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059087</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>213.5952110672384</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>356.9224994274309</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -1861,10 +1861,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>94.85221834567521</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -2067,10 +2067,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>119.8051733265733</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>119.0575367347623</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>334.0755358138493</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>166.6895325984412</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2566,16 +2566,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>378.9769832968749</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>54.68688746169106</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -2809,7 +2809,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>304.7162152260364</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>129.1658792212797</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3046,10 +3046,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>304.7162152260364</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>119.8051733265733</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>27.35334490128935</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>165.9184445944652</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>106.9706214097034</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>157.4229911737221</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>21.44088782360939</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
@@ -3982,7 +3982,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>10.70725489880965</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3994,10 +3994,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>270.066647899626</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>876.4530309326553</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="C2" t="n">
-        <v>876.4530309326553</v>
+        <v>1678.129690793372</v>
       </c>
       <c r="D2" t="n">
-        <v>471.9891010257159</v>
+        <v>1273.665760886433</v>
       </c>
       <c r="E2" t="n">
-        <v>57.64888554261256</v>
+        <v>859.3255454033297</v>
       </c>
       <c r="F2" t="n">
-        <v>57.64888554261256</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>1075.450954962253</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M2" t="n">
-        <v>1075.450954962253</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N2" t="n">
-        <v>1075.450954962253</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O2" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4372,10 +4372,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>1687.610883649055</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y2" t="n">
-        <v>1286.674210597145</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922353</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>690.384199457534</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>690.384199457534</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="M3" t="n">
-        <v>690.384199457534</v>
+        <v>1724.070068790185</v>
       </c>
       <c r="N3" t="n">
-        <v>1207.227134123859</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O3" t="n">
-        <v>1207.227134123859</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P3" t="n">
-        <v>1724.070068790184</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q3" t="n">
-        <v>2073.914533474168</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4448,13 +4448,13 @@
         <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.8584580678856</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.593134765086</v>
+        <v>1245.499762326802</v>
       </c>
       <c r="V4" t="n">
-        <v>1142.707389704608</v>
+        <v>971.614017266324</v>
       </c>
       <c r="W4" t="n">
-        <v>863.6377252134819</v>
+        <v>692.5443527751984</v>
       </c>
       <c r="X4" t="n">
-        <v>625.2938630731653</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="Y4" t="n">
-        <v>400.5581644619299</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1695.988587952916</v>
+        <v>1265.081890330439</v>
       </c>
       <c r="C5" t="n">
-        <v>1285.863997266186</v>
+        <v>854.9572996437093</v>
       </c>
       <c r="D5" t="n">
-        <v>1285.863997266186</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="E5" t="n">
-        <v>871.5237817830823</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F5" t="n">
         <v>450.4933697367699</v>
@@ -4567,28 +4567,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M5" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N5" t="n">
-        <v>1250.250340018485</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O5" t="n">
-        <v>1250.250340018485</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4609,10 +4609,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>2076.239743046839</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.254281480102</v>
+        <v>1675.303069994929</v>
       </c>
     </row>
     <row r="6">
@@ -4649,25 +4649,25 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>234.5779431922353</v>
+        <v>537.7254774811262</v>
       </c>
       <c r="L6" t="n">
-        <v>751.4208778585605</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M6" t="n">
-        <v>1192.007362767163</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N6" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O6" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1131.098935930739</v>
+        <v>322.9750202396928</v>
       </c>
       <c r="C7" t="n">
-        <v>960.0055634924552</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="D7" t="n">
-        <v>800.5109188153651</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="E7" t="n">
-        <v>639.6001036836846</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F7" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4758,19 +4758,19 @@
         <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1571.163982250452</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V7" t="n">
-        <v>1571.163982250452</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="W7" t="n">
-        <v>1571.163982250452</v>
+        <v>735.4104252449724</v>
       </c>
       <c r="X7" t="n">
-        <v>1543.534340936018</v>
+        <v>735.4104252449724</v>
       </c>
       <c r="Y7" t="n">
-        <v>1318.798642324783</v>
+        <v>510.6747266337371</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2153.869890821028</v>
+        <v>2547.518411739271</v>
       </c>
       <c r="C8" t="n">
-        <v>1743.745300134298</v>
+        <v>2137.393821052541</v>
       </c>
       <c r="D8" t="n">
-        <v>1339.281370227359</v>
+        <v>1732.929891145602</v>
       </c>
       <c r="E8" t="n">
         <v>1318.589675662498</v>
@@ -4831,25 +4831,25 @@
         <v>4578.535972690457</v>
       </c>
       <c r="S8" t="n">
-        <v>4578.535972690457</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T8" t="n">
-        <v>4356.329488637316</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U8" t="n">
-        <v>4099.268996896826</v>
+        <v>3963.987921690927</v>
       </c>
       <c r="V8" t="n">
-        <v>3749.431442233307</v>
+        <v>3963.987921690927</v>
       </c>
       <c r="W8" t="n">
-        <v>3365.671141368475</v>
+        <v>3580.227620826095</v>
       </c>
       <c r="X8" t="n">
-        <v>2965.027743537428</v>
+        <v>3358.676264455671</v>
       </c>
       <c r="Y8" t="n">
-        <v>2564.091070485518</v>
+        <v>2957.739591403761</v>
       </c>
     </row>
     <row r="9">
@@ -4895,10 +4895,10 @@
         <v>740.1898332817411</v>
       </c>
       <c r="N9" t="n">
-        <v>1196.950038769166</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="O9" t="n">
-        <v>1196.950038769166</v>
+        <v>1444.146923827635</v>
       </c>
       <c r="P9" t="n">
         <v>1758.655931257696</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1180.904569754946</v>
+        <v>573.1823622183165</v>
       </c>
       <c r="C10" t="n">
-        <v>1009.811197316662</v>
+        <v>402.088989780033</v>
       </c>
       <c r="D10" t="n">
-        <v>850.3165526395721</v>
+        <v>402.088989780033</v>
       </c>
       <c r="E10" t="n">
-        <v>689.4057375078917</v>
+        <v>241.1781746483525</v>
       </c>
       <c r="F10" t="n">
-        <v>524.7746116184829</v>
+        <v>241.1781746483525</v>
       </c>
       <c r="G10" t="n">
-        <v>357.5242205440263</v>
+        <v>241.1781746483525</v>
       </c>
       <c r="H10" t="n">
-        <v>207.916765349483</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I10" t="n">
         <v>91.57071945380915</v>
@@ -4989,25 +4989,25 @@
         <v>1620.969616074659</v>
       </c>
       <c r="S10" t="n">
-        <v>1620.969616074659</v>
+        <v>1434.577847954569</v>
       </c>
       <c r="T10" t="n">
-        <v>1620.969616074659</v>
+        <v>1195.029108931271</v>
       </c>
       <c r="U10" t="n">
-        <v>1620.969616074659</v>
+        <v>985.6177672235962</v>
       </c>
       <c r="V10" t="n">
-        <v>1620.969616074659</v>
+        <v>985.6177672235962</v>
       </c>
       <c r="W10" t="n">
-        <v>1620.969616074659</v>
+        <v>985.6177672235962</v>
       </c>
       <c r="X10" t="n">
-        <v>1593.339974760225</v>
+        <v>985.6177672235962</v>
       </c>
       <c r="Y10" t="n">
-        <v>1368.60427614899</v>
+        <v>760.8820686123609</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2153.869890821028</v>
+        <v>2138.790127632103</v>
       </c>
       <c r="C11" t="n">
-        <v>1743.745300134298</v>
+        <v>1728.665536945373</v>
       </c>
       <c r="D11" t="n">
-        <v>1339.281370227359</v>
+        <v>1324.201607038434</v>
       </c>
       <c r="E11" t="n">
-        <v>924.9411547442555</v>
+        <v>909.8613915553304</v>
       </c>
       <c r="F11" t="n">
-        <v>503.9107426979431</v>
+        <v>488.830979509018</v>
       </c>
       <c r="G11" t="n">
-        <v>95.18245859077524</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H11" t="n">
-        <v>91.57071945380915</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I11" t="n">
         <v>91.57071945380915</v>
       </c>
       <c r="J11" t="n">
-        <v>263.7802573176947</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K11" t="n">
-        <v>801.9397584267342</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L11" t="n">
-        <v>1514.531158238972</v>
+        <v>1596.507091842841</v>
       </c>
       <c r="M11" t="n">
-        <v>2290.849749230726</v>
+        <v>2372.825682834595</v>
       </c>
       <c r="N11" t="n">
-        <v>3044.030765869344</v>
+        <v>3126.006699473213</v>
       </c>
       <c r="O11" t="n">
-        <v>3687.661622286449</v>
+        <v>3769.637555890318</v>
       </c>
       <c r="P11" t="n">
-        <v>4216.818320205601</v>
+        <v>4298.794253809469</v>
       </c>
       <c r="Q11" t="n">
-        <v>4537.979327000892</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R11" t="n">
         <v>4578.535972690457</v>
       </c>
       <c r="S11" t="n">
-        <v>4578.535972690457</v>
+        <v>4563.456209501532</v>
       </c>
       <c r="T11" t="n">
-        <v>4356.329488637316</v>
+        <v>4341.249725448391</v>
       </c>
       <c r="U11" t="n">
-        <v>4099.268996896826</v>
+        <v>4084.189233707901</v>
       </c>
       <c r="V11" t="n">
-        <v>3749.431442233307</v>
+        <v>3734.351679044381</v>
       </c>
       <c r="W11" t="n">
-        <v>3365.671141368475</v>
+        <v>3350.59137817955</v>
       </c>
       <c r="X11" t="n">
-        <v>2965.027743537428</v>
+        <v>2949.947980348502</v>
       </c>
       <c r="Y11" t="n">
-        <v>2564.091070485518</v>
+        <v>2549.011307296592</v>
       </c>
     </row>
     <row r="12">
@@ -5123,25 +5123,25 @@
         <v>284.3835770164424</v>
       </c>
       <c r="K12" t="n">
-        <v>740.1898332817411</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="L12" t="n">
-        <v>740.1898332817411</v>
+        <v>945.4717489357306</v>
       </c>
       <c r="M12" t="n">
-        <v>1226.509558131796</v>
+        <v>945.4717489357306</v>
       </c>
       <c r="N12" t="n">
-        <v>1226.509558131796</v>
+        <v>1819.129841047348</v>
       </c>
       <c r="O12" t="n">
-        <v>1226.509558131796</v>
+        <v>1819.129841047348</v>
       </c>
       <c r="P12" t="n">
-        <v>1788.215450620326</v>
+        <v>1819.129841047348</v>
       </c>
       <c r="Q12" t="n">
-        <v>2138.059915304309</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="R12" t="n">
         <v>2138.059915304309</v>
@@ -5223,25 +5223,25 @@
         <v>1620.969616074659</v>
       </c>
       <c r="R13" t="n">
-        <v>1535.696897750059</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S13" t="n">
-        <v>1349.305129629969</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T13" t="n">
-        <v>1109.756390606671</v>
+        <v>1381.420877051361</v>
       </c>
       <c r="U13" t="n">
-        <v>826.9582431527954</v>
+        <v>1098.622729597485</v>
       </c>
       <c r="V13" t="n">
-        <v>553.0724980923173</v>
+        <v>824.7369845370074</v>
       </c>
       <c r="W13" t="n">
-        <v>274.0028336011917</v>
+        <v>545.6673200458818</v>
       </c>
       <c r="X13" t="n">
-        <v>91.57071945380915</v>
+        <v>307.3234579055651</v>
       </c>
       <c r="Y13" t="n">
         <v>91.57071945380915</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2547.518411739271</v>
+        <v>2150.258151684062</v>
       </c>
       <c r="C14" t="n">
-        <v>2137.393821052541</v>
+        <v>1740.133560997332</v>
       </c>
       <c r="D14" t="n">
-        <v>1732.929891145602</v>
+        <v>1335.669631090393</v>
       </c>
       <c r="E14" t="n">
-        <v>1318.589675662498</v>
+        <v>921.3294156072894</v>
       </c>
       <c r="F14" t="n">
-        <v>897.5592636161858</v>
+        <v>500.299003560977</v>
       </c>
       <c r="G14" t="n">
-        <v>488.830979509018</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H14" t="n">
-        <v>177.922482136736</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I14" t="n">
         <v>91.57071945380915</v>
@@ -5305,25 +5305,25 @@
         <v>4578.535972690457</v>
       </c>
       <c r="S14" t="n">
-        <v>4578.535972690457</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T14" t="n">
-        <v>4578.535972690457</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U14" t="n">
-        <v>4492.917517815069</v>
+        <v>3963.987921690927</v>
       </c>
       <c r="V14" t="n">
-        <v>4143.079963151549</v>
+        <v>3614.150367027407</v>
       </c>
       <c r="W14" t="n">
-        <v>3759.319662286718</v>
+        <v>3230.390066162576</v>
       </c>
       <c r="X14" t="n">
-        <v>3358.676264455671</v>
+        <v>2829.746668331528</v>
       </c>
       <c r="Y14" t="n">
-        <v>2957.739591403761</v>
+        <v>2560.479331348552</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>91.57071945380915</v>
       </c>
       <c r="J15" t="n">
-        <v>91.57071945380915</v>
+        <v>148.6288870625254</v>
       </c>
       <c r="K15" t="n">
-        <v>547.3769757191078</v>
+        <v>604.4351433278241</v>
       </c>
       <c r="L15" t="n">
-        <v>547.3769757191078</v>
+        <v>1265.523315247112</v>
       </c>
       <c r="M15" t="n">
-        <v>547.3769757191078</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="N15" t="n">
-        <v>547.3769757191078</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="O15" t="n">
-        <v>1196.950038769166</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="P15" t="n">
-        <v>1758.655931257696</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="Q15" t="n">
         <v>2108.500395941679</v>
@@ -5460,25 +5460,25 @@
         <v>1620.969616074659</v>
       </c>
       <c r="R16" t="n">
-        <v>1535.696897750059</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S16" t="n">
-        <v>1349.305129629969</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T16" t="n">
-        <v>1109.756390606671</v>
+        <v>1381.420877051361</v>
       </c>
       <c r="U16" t="n">
-        <v>826.9582431527954</v>
+        <v>1098.622729597485</v>
       </c>
       <c r="V16" t="n">
-        <v>553.0724980923173</v>
+        <v>824.7369845370074</v>
       </c>
       <c r="W16" t="n">
-        <v>274.0028336011917</v>
+        <v>545.6673200458818</v>
       </c>
       <c r="X16" t="n">
-        <v>91.57071945380915</v>
+        <v>307.3234579055651</v>
       </c>
       <c r="Y16" t="n">
         <v>91.57071945380915</v>
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="N18" t="n">
-        <v>1435.775802995229</v>
+        <v>1406.216283632599</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>786.8890373059935</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>786.8890373059935</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>786.8890373059935</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5703,22 +5703,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1339.844446857597</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>1065.958701797119</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>786.8890373059935</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>786.8890373059935</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
-        <v>786.8890373059935</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.649206862142</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E20" t="n">
-        <v>873.3089913790386</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F20" t="n">
-        <v>452.2785793327262</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G20" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5785,19 +5785,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4183.681998679601</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>1129.033635947823</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1129.033635947823</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>821.2260433431736</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>821.2260433431736</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>661.7313986660836</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>541.471260550162</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>376.8401346607533</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5940,22 +5940,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1383.093855288175</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U22" t="n">
-        <v>1100.295707834299</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V22" t="n">
-        <v>1100.295707834299</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W22" t="n">
-        <v>821.2260433431736</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X22" t="n">
-        <v>821.2260433431736</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y22" t="n">
-        <v>821.2260433431736</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3697.79927886809</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6074,22 +6074,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>393.5382013723083</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1236.515282066875</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>913.9039397142094</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>745.5306744632587</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>586.0360297861687</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>425.1252146544881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
         <v>93.2436976906228</v>
@@ -6174,25 +6174,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>1196.702087168085</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U25" t="n">
-        <v>913.9039397142094</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V25" t="n">
-        <v>913.9039397142094</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W25" t="n">
-        <v>913.9039397142094</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X25" t="n">
-        <v>913.9039397142094</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y25" t="n">
-        <v>913.9039397142094</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F26" t="n">
-        <v>490.5039577458317</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1584.839892213121</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4011.405617385543</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>3840.31224494726</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>3680.81760027017</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>3519.906785138489</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>3355.27565924908</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>3188.025268174624</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>4662.18488453114</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U28" t="n">
-        <v>4662.18488453114</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V28" t="n">
-        <v>4662.18488453114</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W28" t="n">
-        <v>4662.18488453114</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X28" t="n">
-        <v>4423.841022390823</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y28" t="n">
-        <v>4199.105323779588</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2459.725286714852</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C29" t="n">
-        <v>2049.600696028122</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D29" t="n">
-        <v>1645.136766121183</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
-        <v>1230.796550638079</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
-        <v>809.7661385917668</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>401.0378544845989</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
         <v>93.2436976906228</v>
@@ -6496,19 +6496,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4405.12439279065</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V29" t="n">
-        <v>4055.286838127131</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W29" t="n">
-        <v>3671.526537262299</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X29" t="n">
-        <v>3270.883139431251</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y29" t="n">
-        <v>2869.946466379341</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="30">
@@ -6554,16 +6554,16 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1066.231502096085</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>895.138129657802</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>735.6434849807119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>574.7326698490315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
         <v>93.2436976906228</v>
@@ -6648,25 +6648,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1196.702087168085</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U31" t="n">
-        <v>1196.702087168085</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V31" t="n">
-        <v>1196.702087168085</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W31" t="n">
-        <v>1196.702087168085</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X31" t="n">
-        <v>1196.702087168085</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y31" t="n">
-        <v>1196.702087168085</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2238.282892603803</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C32" t="n">
-        <v>1828.158301917073</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D32" t="n">
-        <v>1423.694372010133</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E32" t="n">
-        <v>1009.35415652703</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F32" t="n">
-        <v>588.3237444807176</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G32" t="n">
-        <v>179.5954603735497</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U32" t="n">
-        <v>4183.681998679601</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V32" t="n">
-        <v>3833.844444016082</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W32" t="n">
-        <v>3450.08414315125</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X32" t="n">
-        <v>3049.440745320202</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y32" t="n">
-        <v>2648.504072268292</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="33">
@@ -6782,25 +6782,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>886.6708173828915</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>886.6708173828915</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4222.119838211426</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>4051.026465773143</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>4662.18488453114</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>4662.18488453114</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W34" t="n">
-        <v>4662.18488453114</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X34" t="n">
-        <v>4634.555243216706</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y34" t="n">
-        <v>4409.819544605471</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
         <v>885.5886702674165</v>
@@ -6970,19 +6970,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="U35" t="n">
-        <v>4494.590496051882</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V35" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W35" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X35" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y35" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1236.515282066875</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>1236.515282066875</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>584.7425299376769</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>413.6491574993933</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>254.1545128223033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
         <v>93.2436976906228</v>
@@ -7125,22 +7125,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>1514.591461574399</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>1235.521797083273</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>997.1779349429565</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.4422363317212</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
         <v>885.5886702674165</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
-        <v>4269.84331758475</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V38" t="n">
-        <v>3920.005762921231</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W38" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X38" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7262,19 +7262,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>886.6708173828915</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>453.2449236514532</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>282.1515512131697</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>282.1515512131697</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>282.1515512131697</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>282.1515512131697</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>114.9011601387131</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>114.9011601387131</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7365,19 +7365,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1383.093855288175</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V40" t="n">
-        <v>1383.093855288175</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W40" t="n">
-        <v>1104.024190797049</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X40" t="n">
-        <v>865.6803286567329</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y40" t="n">
-        <v>640.9446300454975</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="41">
@@ -7411,19 +7411,19 @@
         <v>91.57071945380915</v>
       </c>
       <c r="J41" t="n">
-        <v>263.7802573176947</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K41" t="n">
-        <v>801.9397584267342</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L41" t="n">
-        <v>1514.531158238972</v>
+        <v>1596.507091842841</v>
       </c>
       <c r="M41" t="n">
-        <v>2290.849749230726</v>
+        <v>2372.825682834595</v>
       </c>
       <c r="N41" t="n">
-        <v>3044.030765869344</v>
+        <v>3126.006699473213</v>
       </c>
       <c r="O41" t="n">
         <v>3687.661622286449</v>
@@ -7499,19 +7499,19 @@
         <v>91.57071945380915</v>
       </c>
       <c r="M42" t="n">
-        <v>560.4447326467969</v>
+        <v>884.9978391460777</v>
       </c>
       <c r="N42" t="n">
-        <v>1434.102824758415</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="O42" t="n">
-        <v>2138.059915304309</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="P42" t="n">
-        <v>2138.059915304309</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="Q42" t="n">
-        <v>2138.059915304309</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="R42" t="n">
         <v>2138.059915304309</v>
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2153.869890821028</v>
+        <v>2018.588815615129</v>
       </c>
       <c r="C44" t="n">
-        <v>1743.745300134298</v>
+        <v>1608.464224928399</v>
       </c>
       <c r="D44" t="n">
-        <v>1732.929891145602</v>
+        <v>1608.464224928399</v>
       </c>
       <c r="E44" t="n">
-        <v>1318.589675662498</v>
+        <v>1194.124009445296</v>
       </c>
       <c r="F44" t="n">
-        <v>897.5592636161858</v>
+        <v>773.0935973989831</v>
       </c>
       <c r="G44" t="n">
-        <v>488.830979509018</v>
+        <v>364.3653132918153</v>
       </c>
       <c r="H44" t="n">
-        <v>177.922482136736</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I44" t="n">
         <v>91.57071945380915</v>
@@ -7666,7 +7666,7 @@
         <v>3769.637555890318</v>
       </c>
       <c r="P44" t="n">
-        <v>4298.794253809469</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q44" t="n">
         <v>4537.979327000892</v>
@@ -7675,25 +7675,25 @@
         <v>4578.535972690457</v>
       </c>
       <c r="S44" t="n">
-        <v>4578.535972690457</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T44" t="n">
-        <v>4356.329488637316</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U44" t="n">
-        <v>4099.268996896826</v>
+        <v>3963.987921690927</v>
       </c>
       <c r="V44" t="n">
-        <v>3749.431442233307</v>
+        <v>3614.150367027407</v>
       </c>
       <c r="W44" t="n">
-        <v>3365.671141368475</v>
+        <v>3230.390066162576</v>
       </c>
       <c r="X44" t="n">
-        <v>2965.027743537428</v>
+        <v>2829.746668331528</v>
       </c>
       <c r="Y44" t="n">
-        <v>2564.091070485518</v>
+        <v>2428.809995279618</v>
       </c>
     </row>
     <row r="45">
@@ -7727,22 +7727,22 @@
         <v>91.57071945380915</v>
       </c>
       <c r="J45" t="n">
-        <v>284.3835770164424</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K45" t="n">
-        <v>740.1898332817411</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="L45" t="n">
-        <v>1196.950038769166</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="M45" t="n">
-        <v>1196.950038769166</v>
+        <v>884.9978391460777</v>
       </c>
       <c r="N45" t="n">
-        <v>1196.950038769166</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="O45" t="n">
-        <v>1196.950038769166</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="P45" t="n">
         <v>1758.655931257696</v>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>553.1935596277625</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
         <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8063,25 +8063,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>421.0562344946766</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>73.48479305079361</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
         <v>89.13638967321712</v>
@@ -8227,19 +8227,19 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>534.7878950544006</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>229.2480899138817</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,13 +8297,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>362.0354133794547</v>
       </c>
       <c r="L6" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>502.6011371814504</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
         <v>575.2569637637755</v>
@@ -8315,10 +8315,10 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8543,13 +8543,13 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>514.5673383305423</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
-        <v>621.6393243851574</v>
+        <v>371.9455010937736</v>
       </c>
       <c r="Q9" t="n">
         <v>410.0708656603775</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>247.2726194786469</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8710,10 +8710,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>372.6011972082306</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,28 +8771,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>548.7963290415026</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
         <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>348.9861082970918</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>109.003751536077</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>713.8858861212705</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9242,19 +9242,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>557.7944283533855</v>
+        <v>516.9020362826938</v>
       </c>
       <c r="O18" t="n">
         <v>768.8192472281761</v>
@@ -9266,7 +9266,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9424,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>55.82578278461539</v>
@@ -9491,19 +9491,19 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>128.0437830991482</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,16 +9722,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>359.4423053075011</v>
       </c>
       <c r="M24" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9740,7 +9740,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
         <v>56.11452381084905</v>
@@ -9965,10 +9965,10 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>583.8332741668524</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -9977,7 +9977,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>322.8042452836262</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,28 +10430,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>397.1456989896066</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,22 +10664,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>555.7634839606675</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10688,7 +10688,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10910,22 +10910,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>859.0058187811131</v>
       </c>
       <c r="N39" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>247.2726194786469</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11074,7 +11074,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>743.321953824879</v>
+        <v>660.5179804876379</v>
       </c>
       <c r="P41" t="n">
         <v>628.1510783507341</v>
@@ -11147,22 +11147,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>531.1743980747686</v>
+        <v>859.0058187811129</v>
       </c>
       <c r="N42" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11314,10 +11314,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>628.1510783507341</v>
+        <v>545.3471050134931</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.6348884308923</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11375,25 +11375,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>517.4884687476414</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>859.0058187811129</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22558,16 +22558,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>97.56449907205268</v>
       </c>
       <c r="G2" t="n">
-        <v>388.9160393522157</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22612,10 +22612,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -22707,7 +22707,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
@@ -22752,16 +22752,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>126.9450269688244</v>
+        <v>279.1358310293431</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17.77593127592985</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22849,10 +22849,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>384.742570803806</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22944,25 +22944,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>53.96941808042551</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22998,16 +22998,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>208.6070786176243</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23029,7 +23029,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>389.7120357090604</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23080,13 +23080,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>177.3011210460168</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23184,22 +23184,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,13 +23229,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>72.65293768873863</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -23244,7 +23244,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>304.2237906529627</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>118.999298896804</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300473</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884518</v>
       </c>
     </row>
     <row r="14">
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>169.7276164964508</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>130.3526427082438</v>
       </c>
     </row>
     <row r="15">
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300473</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884518</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>49.1964684404137</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>64.44948863468851</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="20">
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>40.24417024560138</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>62.56142803888764</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>2.692906115459493</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
@@ -24414,25 +24414,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>37.84312462897441</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>93.42449318090684</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
         <v>115.1825854367171</v>
@@ -24654,16 +24654,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>3.08319717252283</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -24736,7 +24736,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>56.65683010882424</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24888,25 +24888,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>3.08319717252283</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>134.6847134965117</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>208.6070786176241</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="35">
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>88.57144222861982</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
@@ -25365,13 +25365,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>164.1762662001699</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="38">
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>222.499706682461</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
@@ -25563,13 +25563,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>93.7416976131077</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>389.7120357090604</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>37.73276449893314</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>504186.3875931783</v>
+        <v>504186.3875931785</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>504186.3875931785</v>
+        <v>504186.3875931784</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>759009.4272679699</v>
+        <v>759009.4272679702</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>759009.4272679699</v>
+        <v>759009.4272679703</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>759009.4272679699</v>
+        <v>759009.4272679702</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>767568.9689679979</v>
+        <v>767568.9689679982</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>767568.9689679979</v>
+        <v>767568.9689679983</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>767568.9689679982</v>
+        <v>767568.9689679983</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>767568.9689679979</v>
+        <v>767568.9689679983</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>767568.9689679981</v>
+        <v>767568.9689679983</v>
       </c>
     </row>
     <row r="13">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>161720.1620581895</v>
+        <v>161720.1620581894</v>
       </c>
       <c r="C2" t="n">
         <v>161720.1620581895</v>
@@ -26325,7 +26325,7 @@
         <v>243455.8540293491</v>
       </c>
       <c r="F2" t="n">
-        <v>243455.854029349</v>
+        <v>243455.8540293491</v>
       </c>
       <c r="G2" t="n">
         <v>246201.3674048298</v>
@@ -26334,19 +26334,19 @@
         <v>246201.3674048298</v>
       </c>
       <c r="I2" t="n">
-        <v>246201.3674048298</v>
+        <v>246201.3674048297</v>
       </c>
       <c r="J2" t="n">
         <v>246201.3674048298</v>
       </c>
       <c r="K2" t="n">
-        <v>246201.3674048298</v>
+        <v>246201.3674048297</v>
       </c>
       <c r="L2" t="n">
         <v>246201.3674048298</v>
       </c>
       <c r="M2" t="n">
-        <v>246201.3674048299</v>
+        <v>246201.3674048298</v>
       </c>
       <c r="N2" t="n">
         <v>246201.3674048298</v>
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>193389.0504351681</v>
+        <v>193389.0504351682</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>433.9049324434263</v>
       </c>
       <c r="C4" t="n">
-        <v>433.9049324434263</v>
+        <v>433.9049324434264</v>
       </c>
       <c r="D4" t="n">
-        <v>728.2411357281798</v>
+        <v>728.2411357281799</v>
       </c>
       <c r="E4" t="n">
         <v>728.2411357281799</v>
@@ -26432,7 +26432,7 @@
         <v>728.2411357281799</v>
       </c>
       <c r="G4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="H4" t="n">
         <v>738.1279301446466</v>
@@ -26441,7 +26441,7 @@
         <v>738.1279301446466</v>
       </c>
       <c r="J4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="K4" t="n">
         <v>738.1279301446466</v>
@@ -26453,10 +26453,10 @@
         <v>738.1279301446466</v>
       </c>
       <c r="N4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="O4" t="n">
-        <v>728.24113572818</v>
+        <v>728.2411357281799</v>
       </c>
       <c r="P4" t="n">
         <v>728.2411357281799</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-79038.31784586556</v>
+        <v>-79715.8467052597</v>
       </c>
       <c r="C6" t="n">
-        <v>95917.19204724848</v>
+        <v>95239.66318785446</v>
       </c>
       <c r="D6" t="n">
-        <v>-53882.78432644224</v>
+        <v>-54079.51499777067</v>
       </c>
       <c r="E6" t="n">
-        <v>173133.866108726</v>
+        <v>172937.1354373975</v>
       </c>
       <c r="F6" t="n">
-        <v>173133.8661087259</v>
+        <v>172937.1354373976</v>
       </c>
       <c r="G6" t="n">
-        <v>168866.3012293485</v>
+        <v>168685.7206366994</v>
       </c>
       <c r="H6" t="n">
-        <v>174598.0292298118</v>
+        <v>174417.4486371627</v>
       </c>
       <c r="I6" t="n">
-        <v>174598.0292298119</v>
+        <v>174417.4486371627</v>
       </c>
       <c r="J6" t="n">
-        <v>38003.22842391682</v>
+        <v>37822.64783126778</v>
       </c>
       <c r="K6" t="n">
-        <v>174598.0292298118</v>
+        <v>174417.4486371627</v>
       </c>
       <c r="L6" t="n">
-        <v>17031.05835228183</v>
+        <v>16850.47775963276</v>
       </c>
       <c r="M6" t="n">
-        <v>174598.0292298119</v>
+        <v>174417.4486371628</v>
       </c>
       <c r="N6" t="n">
-        <v>174598.0292298119</v>
+        <v>174417.4486371627</v>
       </c>
       <c r="O6" t="n">
-        <v>173133.866108726</v>
+        <v>172937.1354373975</v>
       </c>
       <c r="P6" t="n">
-        <v>173133.866108726</v>
+        <v>172937.1354373975</v>
       </c>
     </row>
   </sheetData>
@@ -27017,7 +27017,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>622.5704228025887</v>
+        <v>622.5704228025888</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27041,7 +27041,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>622.5704228025887</v>
+        <v>622.5704228025886</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27263,7 +27263,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>622.5704228025887</v>
+        <v>622.5704228025888</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="N2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L2" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34783,25 +34783,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>14.48459394538821</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34947,19 +34947,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>441.8756042977812</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>306.2096305948393</v>
       </c>
       <c r="L6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>445.036853443033</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
         <v>522.0635703700256</v>
@@ -35035,10 +35035,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35263,13 +35263,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3739449367923</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
-        <v>567.3796893823536</v>
+        <v>317.6858660909699</v>
       </c>
       <c r="Q9" t="n">
         <v>353.3782471555388</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>173.9490281453389</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35430,10 +35430,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>282.5673928090785</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>491.2320453030853</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>292.2934897922531</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>57.63451273607701</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>656.1344071212704</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>29.85810036629282</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35904,7 +35904,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>504.6010349596355</v>
+        <v>463.7086428889438</v>
       </c>
       <c r="O18" t="n">
         <v>711.0677682281761</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36144,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36211,19 +36211,19 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>70.29230409914821</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>303.3277814966521</v>
       </c>
       <c r="M24" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,10 +36685,10 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>530.6398807731025</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36922,19 +36922,19 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>265.0527662836262</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>341.0311751787576</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>499.6489601498184</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>801.4415350426957</v>
       </c>
       <c r="N39" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>173.9490281453389</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37794,7 +37794,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
-        <v>650.1321781990958</v>
+        <v>567.3282048618548</v>
       </c>
       <c r="P41" t="n">
         <v>534.50171506985</v>
@@ -37867,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>473.6101143363512</v>
+        <v>801.4415350426955</v>
       </c>
       <c r="N42" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38034,10 +38034,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>534.50171506985</v>
+        <v>451.697741732609</v>
       </c>
       <c r="Q44" t="n">
-        <v>241.6010840317402</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>461.3739449367923</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>801.4415350426955</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>353.3782471555388</v>
